--- a/storage/imports/PLAN_CUENTAS.xlsx
+++ b/storage/imports/PLAN_CUENTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Auza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E65240-9D5C-4851-9942-143C5C210388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547F310-1254-4C0E-90FE-3EBC70BBB48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1741,1476 +1741,180 @@
     <t>1.2.3.002</t>
   </si>
   <si>
-    <t>1.2.3.3</t>
-  </si>
-  <si>
-    <t>1.2.3.4</t>
-  </si>
-  <si>
-    <t>1.2.3.5</t>
-  </si>
-  <si>
-    <t>1.2.3.6</t>
-  </si>
-  <si>
-    <t>1.2.3.7</t>
-  </si>
-  <si>
-    <t>1.2.3.8</t>
-  </si>
-  <si>
-    <t>1.2.3.9</t>
-  </si>
-  <si>
-    <t>1.2.3.10</t>
-  </si>
-  <si>
-    <t>1.2.3.11</t>
-  </si>
-  <si>
-    <t>1.2.3.12</t>
-  </si>
-  <si>
-    <t>1.2.3.13</t>
-  </si>
-  <si>
-    <t>1.2.3.14</t>
-  </si>
-  <si>
-    <t>1.2.3.15</t>
-  </si>
-  <si>
-    <t>1.2.3.16</t>
-  </si>
-  <si>
-    <t>1.2.3.17</t>
-  </si>
-  <si>
-    <t>1.2.3.18</t>
-  </si>
-  <si>
-    <t>1.2.3.19</t>
-  </si>
-  <si>
-    <t>1.2.3.20</t>
-  </si>
-  <si>
-    <t>1.2.3.21</t>
-  </si>
-  <si>
-    <t>1.2.3.22</t>
-  </si>
-  <si>
-    <t>1.2.3.23</t>
-  </si>
-  <si>
-    <t>1.2.3.24</t>
-  </si>
-  <si>
-    <t>1.2.3.25</t>
-  </si>
-  <si>
-    <t>1.2.3.26</t>
-  </si>
-  <si>
-    <t>1.2.3.27</t>
-  </si>
-  <si>
-    <t>1.2.3.28</t>
-  </si>
-  <si>
     <t>1.2.4</t>
   </si>
   <si>
-    <t>1.2.4.1</t>
-  </si>
-  <si>
     <t>1.2.5</t>
   </si>
   <si>
-    <t>1.2.5.1</t>
-  </si>
-  <si>
-    <t>1.2.5.2</t>
-  </si>
-  <si>
-    <t>1.2.5.3</t>
-  </si>
-  <si>
-    <t>1.2.5.4</t>
-  </si>
-  <si>
-    <t>1.2.5.5</t>
-  </si>
-  <si>
-    <t>1.2.5.6</t>
-  </si>
-  <si>
-    <t>1.2.5.7</t>
-  </si>
-  <si>
-    <t>1.2.5.8</t>
-  </si>
-  <si>
     <t>1.2.6</t>
   </si>
   <si>
-    <t>1.2.6.1</t>
-  </si>
-  <si>
-    <t>1.2.6.2</t>
-  </si>
-  <si>
-    <t>1.2.6.3</t>
-  </si>
-  <si>
-    <t>1.2.6.4</t>
-  </si>
-  <si>
-    <t>1.2.6.5</t>
-  </si>
-  <si>
-    <t>1.2.6.6</t>
-  </si>
-  <si>
-    <t>1.2.6.7</t>
-  </si>
-  <si>
-    <t>1.2.6.8</t>
-  </si>
-  <si>
-    <t>1.2.6.9</t>
-  </si>
-  <si>
-    <t>1.2.6.10</t>
-  </si>
-  <si>
-    <t>1.2.6.11</t>
-  </si>
-  <si>
     <t>1.2.7</t>
   </si>
   <si>
-    <t>1.2.7.1</t>
-  </si>
-  <si>
-    <t>1.2.7.2</t>
-  </si>
-  <si>
-    <t>1.2.7.3</t>
-  </si>
-  <si>
     <t>1.2.8</t>
   </si>
   <si>
-    <t>1.2.8.1</t>
-  </si>
-  <si>
     <t>1.2.9</t>
   </si>
   <si>
-    <t>1.2.9.1</t>
-  </si>
-  <si>
-    <t>1.2.9.2</t>
-  </si>
-  <si>
-    <t>1.2.9.3</t>
-  </si>
-  <si>
-    <t>1.2.9.4</t>
-  </si>
-  <si>
-    <t>1.2.9.5</t>
-  </si>
-  <si>
     <t>1.2.10</t>
   </si>
   <si>
-    <t>1.2.10.1</t>
-  </si>
-  <si>
-    <t>1.2.10.2</t>
-  </si>
-  <si>
-    <t>1.2.10.3</t>
-  </si>
-  <si>
-    <t>1.2.10.4</t>
-  </si>
-  <si>
-    <t>1.2.10.5</t>
-  </si>
-  <si>
-    <t>1.2.10.6</t>
-  </si>
-  <si>
-    <t>1.2.10.7</t>
-  </si>
-  <si>
     <t>1.2.11</t>
   </si>
   <si>
-    <t>1.2.11.1</t>
-  </si>
-  <si>
-    <t>1.2.11.2</t>
-  </si>
-  <si>
-    <t>1.2.11.3</t>
-  </si>
-  <si>
-    <t>1.2.11.4</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
     <t>2.1.1</t>
   </si>
   <si>
-    <t>2.1.1.1</t>
-  </si>
-  <si>
-    <t>2.1.1.2</t>
-  </si>
-  <si>
-    <t>2.1.1.3</t>
-  </si>
-  <si>
-    <t>2.1.1.4</t>
-  </si>
-  <si>
     <t>2.1.2</t>
   </si>
   <si>
-    <t>2.1.2.1</t>
-  </si>
-  <si>
-    <t>2.1.2.2</t>
-  </si>
-  <si>
-    <t>2.1.2.3</t>
-  </si>
-  <si>
-    <t>2.1.2.4</t>
-  </si>
-  <si>
-    <t>2.1.2.5</t>
-  </si>
-  <si>
-    <t>2.1.2.6</t>
-  </si>
-  <si>
-    <t>2.1.2.7</t>
-  </si>
-  <si>
-    <t>2.1.2.8</t>
-  </si>
-  <si>
-    <t>2.1.2.9</t>
-  </si>
-  <si>
-    <t>2.1.2.10</t>
-  </si>
-  <si>
-    <t>2.1.2.11</t>
-  </si>
-  <si>
-    <t>2.1.2.12</t>
-  </si>
-  <si>
-    <t>2.1.2.13</t>
-  </si>
-  <si>
-    <t>2.1.2.14</t>
-  </si>
-  <si>
-    <t>2.1.2.15</t>
-  </si>
-  <si>
-    <t>2.1.2.16</t>
-  </si>
-  <si>
-    <t>2.1.2.17</t>
-  </si>
-  <si>
-    <t>2.1.2.18</t>
-  </si>
-  <si>
-    <t>2.1.2.19</t>
-  </si>
-  <si>
-    <t>2.1.2.20</t>
-  </si>
-  <si>
-    <t>2.1.2.21</t>
-  </si>
-  <si>
-    <t>2.1.2.22</t>
-  </si>
-  <si>
-    <t>2.1.2.23</t>
-  </si>
-  <si>
     <t>2.1.3</t>
   </si>
   <si>
-    <t>2.1.3.1</t>
-  </si>
-  <si>
-    <t>2.1.3.2</t>
-  </si>
-  <si>
-    <t>2.1.3.3</t>
-  </si>
-  <si>
-    <t>2.1.3.4</t>
-  </si>
-  <si>
-    <t>2.1.3.5</t>
-  </si>
-  <si>
-    <t>2.1.3.6</t>
-  </si>
-  <si>
-    <t>2.1.3.7</t>
-  </si>
-  <si>
     <t>2.1.4</t>
   </si>
   <si>
-    <t>2.1.4.1</t>
-  </si>
-  <si>
-    <t>2.1.4.1.001</t>
-  </si>
-  <si>
-    <t>2.1.4.2</t>
-  </si>
-  <si>
-    <t>2.1.4.2.001</t>
-  </si>
-  <si>
-    <t>2.1.4.3</t>
-  </si>
-  <si>
-    <t>2.1.4.3.001</t>
-  </si>
-  <si>
-    <t>2.1.4.4</t>
-  </si>
-  <si>
-    <t>2.1.4.4.001</t>
-  </si>
-  <si>
-    <t>2.1.4.5</t>
-  </si>
-  <si>
-    <t>2.1.4.5.001</t>
-  </si>
-  <si>
-    <t>2.1.4.6</t>
-  </si>
-  <si>
-    <t>2.1.4.6.001</t>
-  </si>
-  <si>
-    <t>2.1.4.7</t>
-  </si>
-  <si>
-    <t>2.1.4.7.001</t>
-  </si>
-  <si>
-    <t>2.1.4.8</t>
-  </si>
-  <si>
-    <t>2.1.4.8.001</t>
-  </si>
-  <si>
-    <t>2.1.4.9</t>
-  </si>
-  <si>
-    <t>2.1.4.9.001</t>
-  </si>
-  <si>
-    <t>2.1.4.10</t>
-  </si>
-  <si>
-    <t>2.1.4.10.001</t>
-  </si>
-  <si>
-    <t>2.1.4.11</t>
-  </si>
-  <si>
-    <t>2.1.4.11.001</t>
-  </si>
-  <si>
-    <t>2.1.4.12</t>
-  </si>
-  <si>
-    <t>2.1.4.12.001</t>
-  </si>
-  <si>
-    <t>2.1.4.13</t>
-  </si>
-  <si>
-    <t>2.1.4.13.001</t>
-  </si>
-  <si>
-    <t>2.1.4.14</t>
-  </si>
-  <si>
-    <t>2.1.4.14.001</t>
-  </si>
-  <si>
-    <t>2.1.4.15</t>
-  </si>
-  <si>
-    <t>2.1.4.15.001</t>
-  </si>
-  <si>
-    <t>2.1.4.16</t>
-  </si>
-  <si>
-    <t>2.1.4.16.001</t>
-  </si>
-  <si>
-    <t>2.1.4.17</t>
-  </si>
-  <si>
-    <t>2.1.4.17.001</t>
-  </si>
-  <si>
-    <t>2.1.4.18</t>
-  </si>
-  <si>
-    <t>2.1.4.18.001</t>
-  </si>
-  <si>
-    <t>2.1.4.19</t>
-  </si>
-  <si>
-    <t>2.1.4.20</t>
-  </si>
-  <si>
-    <t>2.1.4.21</t>
-  </si>
-  <si>
-    <t>2.1.4.22</t>
-  </si>
-  <si>
-    <t>2.1.4.23</t>
-  </si>
-  <si>
-    <t>2.1.4.24</t>
-  </si>
-  <si>
-    <t>2.1.4.25</t>
-  </si>
-  <si>
-    <t>2.1.4.26</t>
-  </si>
-  <si>
     <t>2.1.5</t>
   </si>
   <si>
-    <t>2.1.5.1</t>
-  </si>
-  <si>
-    <t>2.1.5.2</t>
-  </si>
-  <si>
     <t>2.1.6</t>
   </si>
   <si>
-    <t>2.1.6.1</t>
-  </si>
-  <si>
-    <t>2.1.6.2</t>
-  </si>
-  <si>
-    <t>2.1.6.3</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
     <t>2.2.1</t>
   </si>
   <si>
-    <t>2.2.1.1</t>
-  </si>
-  <si>
-    <t>2.2.1.2</t>
-  </si>
-  <si>
-    <t>2.2.1.3</t>
-  </si>
-  <si>
-    <t>2.2.1.4</t>
-  </si>
-  <si>
-    <t>2.2.1.5</t>
-  </si>
-  <si>
-    <t>2.2.1.6</t>
-  </si>
-  <si>
     <t>2.2.2</t>
   </si>
   <si>
-    <t>2.2.2.1</t>
-  </si>
-  <si>
-    <t>2.2.2.2</t>
-  </si>
-  <si>
-    <t>2.2.2.3</t>
-  </si>
-  <si>
-    <t>2.2.2.4</t>
-  </si>
-  <si>
-    <t>2.2.2.5</t>
-  </si>
-  <si>
-    <t>2.2.2.6</t>
-  </si>
-  <si>
-    <t>2.2.2.7</t>
-  </si>
-  <si>
-    <t>2.2.2.8</t>
-  </si>
-  <si>
-    <t>2.2.2.9</t>
-  </si>
-  <si>
     <t>2.2.3</t>
   </si>
   <si>
-    <t>2.2.3.1</t>
-  </si>
-  <si>
-    <t>2.2.3.2</t>
-  </si>
-  <si>
-    <t>2.2.3.3</t>
-  </si>
-  <si>
-    <t>2.2.3.4</t>
-  </si>
-  <si>
     <t>2.2.4</t>
   </si>
   <si>
-    <t>2.2.4.1</t>
-  </si>
-  <si>
-    <t>2.2.4.2</t>
-  </si>
-  <si>
-    <t>2.2.4.3</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
     <t>3.1.1</t>
   </si>
   <si>
-    <t>3.1.1.1</t>
-  </si>
-  <si>
-    <t>3.1.1.2</t>
-  </si>
-  <si>
-    <t>3.1.1.2.001</t>
-  </si>
-  <si>
-    <t>3.1.1.3</t>
-  </si>
-  <si>
     <t>3.1.2</t>
   </si>
   <si>
-    <t>3.1.2.1</t>
-  </si>
-  <si>
-    <t>3.1.2.1.001</t>
-  </si>
-  <si>
-    <t>3.1.2.2</t>
-  </si>
-  <si>
-    <t>3.1.2.2.001</t>
-  </si>
-  <si>
-    <t>3.1.2.3</t>
-  </si>
-  <si>
-    <t>3.1.2.3.001</t>
-  </si>
-  <si>
-    <t>3.1.2.4</t>
-  </si>
-  <si>
-    <t>3.1.2.5</t>
-  </si>
-  <si>
-    <t>3.1.2.5.001</t>
-  </si>
-  <si>
     <t>3.1.3</t>
   </si>
   <si>
-    <t>3.1.3.1</t>
-  </si>
-  <si>
-    <t>3.1.3.1.001</t>
-  </si>
-  <si>
     <t>3.1.4</t>
   </si>
   <si>
-    <t>3.1.4.1</t>
-  </si>
-  <si>
-    <t>3.1.4.1.001</t>
-  </si>
-  <si>
-    <t>3.1.4.2</t>
-  </si>
-  <si>
-    <t>3.1.4.2.001</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
     <t>4.1.1</t>
   </si>
   <si>
-    <t>4.1.1.1</t>
-  </si>
-  <si>
-    <t>4.1.1.2</t>
-  </si>
-  <si>
-    <t>4.1.1.3</t>
-  </si>
-  <si>
-    <t>4.1.1.4</t>
-  </si>
-  <si>
-    <t>4.1.1.5</t>
-  </si>
-  <si>
-    <t>4.1.1.6</t>
-  </si>
-  <si>
-    <t>4.1.1.7</t>
-  </si>
-  <si>
-    <t>4.1.1.8</t>
-  </si>
-  <si>
-    <t>4.1.1.9</t>
-  </si>
-  <si>
-    <t>4.1.1.10</t>
-  </si>
-  <si>
     <t>4.2</t>
   </si>
   <si>
     <t>4.2.1</t>
   </si>
   <si>
-    <t>4.2.1.1</t>
-  </si>
-  <si>
-    <t>4.2.1.2</t>
-  </si>
-  <si>
-    <t>4.2.1.3</t>
-  </si>
-  <si>
-    <t>4.2.1.4</t>
-  </si>
-  <si>
-    <t>4.2.1.5</t>
-  </si>
-  <si>
-    <t>4.2.1.6</t>
-  </si>
-  <si>
     <t>4.3</t>
   </si>
   <si>
     <t>4.3.1</t>
   </si>
   <si>
-    <t>4.3.1.1</t>
-  </si>
-  <si>
-    <t>4.3.1.2</t>
-  </si>
-  <si>
-    <t>4.3.1.3</t>
-  </si>
-  <si>
-    <t>4.3.1.4</t>
-  </si>
-  <si>
-    <t>4.3.1.5</t>
-  </si>
-  <si>
-    <t>4.3.1.5.001</t>
-  </si>
-  <si>
-    <t>4.3.1.6</t>
-  </si>
-  <si>
-    <t>4.3.1.7</t>
-  </si>
-  <si>
-    <t>4.3.1.8</t>
-  </si>
-  <si>
-    <t>4.3.1.8.001</t>
-  </si>
-  <si>
-    <t>4.3.1.9</t>
-  </si>
-  <si>
-    <t>4.3.1.10</t>
-  </si>
-  <si>
-    <t>4.3.1.11</t>
-  </si>
-  <si>
-    <t>4.3.1.12</t>
-  </si>
-  <si>
     <t>4.4</t>
   </si>
   <si>
     <t>4.4.1</t>
   </si>
   <si>
-    <t>4.4.1.1</t>
-  </si>
-  <si>
-    <t>4.4.1.1.001</t>
-  </si>
-  <si>
-    <t>4.4.1.2</t>
-  </si>
-  <si>
-    <t>4.4.1.2.001</t>
-  </si>
-  <si>
-    <t>4.4.1.3</t>
-  </si>
-  <si>
-    <t>4.4.1.3.001</t>
-  </si>
-  <si>
-    <t>4.4.1.4</t>
-  </si>
-  <si>
-    <t>4.4.1.4.001</t>
-  </si>
-  <si>
-    <t>4.4.1.5</t>
-  </si>
-  <si>
-    <t>4.4.1.5.001</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
     <t>5.1.1</t>
   </si>
   <si>
-    <t>5.1.1.1</t>
-  </si>
-  <si>
-    <t>5.1.1.2</t>
-  </si>
-  <si>
-    <t>5.1.1.3</t>
-  </si>
-  <si>
-    <t>5.1.1.4</t>
-  </si>
-  <si>
-    <t>5.1.1.5</t>
-  </si>
-  <si>
-    <t>5.1.1.6</t>
-  </si>
-  <si>
-    <t>5.1.1.7</t>
-  </si>
-  <si>
-    <t>5.1.1.8</t>
-  </si>
-  <si>
     <t>5.1.2</t>
   </si>
   <si>
-    <t>5.1.2.1</t>
-  </si>
-  <si>
-    <t>5.1.2.2</t>
-  </si>
-  <si>
-    <t>5.1.2.3</t>
-  </si>
-  <si>
-    <t>5.1.2.4</t>
-  </si>
-  <si>
-    <t>5.1.2.5</t>
-  </si>
-  <si>
     <t>5.1.3</t>
   </si>
   <si>
-    <t>5.1.3.1</t>
-  </si>
-  <si>
-    <t>5.1.3.2</t>
-  </si>
-  <si>
-    <t>5.1.3.3</t>
-  </si>
-  <si>
     <t>5.1.4</t>
   </si>
   <si>
-    <t>5.1.4.1</t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
     <t>5.2.1</t>
   </si>
   <si>
-    <t>5.2.1.1</t>
-  </si>
-  <si>
-    <t>5.2.1.2</t>
-  </si>
-  <si>
-    <t>5.2.1.3</t>
-  </si>
-  <si>
-    <t>5.2.1.4</t>
-  </si>
-  <si>
-    <t>5.2.1.5</t>
-  </si>
-  <si>
-    <t>5.2.1.6</t>
-  </si>
-  <si>
-    <t>5.2.1.7</t>
-  </si>
-  <si>
-    <t>5.2.1.8</t>
-  </si>
-  <si>
-    <t>5.2.1.9</t>
-  </si>
-  <si>
-    <t>5.2.1.10</t>
-  </si>
-  <si>
-    <t>5.2.1.11</t>
-  </si>
-  <si>
-    <t>5.2.1.12</t>
-  </si>
-  <si>
-    <t>5.2.1.13</t>
-  </si>
-  <si>
-    <t>5.2.1.14</t>
-  </si>
-  <si>
-    <t>5.2.1.15</t>
-  </si>
-  <si>
-    <t>5.2.1.16</t>
-  </si>
-  <si>
-    <t>5.2.1.17</t>
-  </si>
-  <si>
     <t>5.2.2</t>
   </si>
   <si>
-    <t>5.2.2.1</t>
-  </si>
-  <si>
-    <t>5.2.2.2</t>
-  </si>
-  <si>
-    <t>5.2.2.3</t>
-  </si>
-  <si>
-    <t>5.2.2.4</t>
-  </si>
-  <si>
-    <t>5.2.2.5</t>
-  </si>
-  <si>
-    <t>5.2.2.6</t>
-  </si>
-  <si>
-    <t>5.2.2.7</t>
-  </si>
-  <si>
-    <t>5.2.2.8</t>
-  </si>
-  <si>
-    <t>5.2.2.9</t>
-  </si>
-  <si>
-    <t>5.2.2.10</t>
-  </si>
-  <si>
-    <t>5.2.2.11</t>
-  </si>
-  <si>
-    <t>5.2.2.12</t>
-  </si>
-  <si>
-    <t>5.2.2.13</t>
-  </si>
-  <si>
-    <t>5.2.2.14</t>
-  </si>
-  <si>
-    <t>5.2.2.15</t>
-  </si>
-  <si>
-    <t>5.2.2.16</t>
-  </si>
-  <si>
-    <t>5.2.2.17</t>
-  </si>
-  <si>
-    <t>5.2.2.18</t>
-  </si>
-  <si>
-    <t>5.2.2.19</t>
-  </si>
-  <si>
-    <t>5.2.2.20</t>
-  </si>
-  <si>
-    <t>5.2.2.21</t>
-  </si>
-  <si>
-    <t>5.2.2.22</t>
-  </si>
-  <si>
-    <t>5.2.2.23</t>
-  </si>
-  <si>
-    <t>5.2.2.24</t>
-  </si>
-  <si>
-    <t>5.2.2.25</t>
-  </si>
-  <si>
-    <t>5.2.2.26</t>
-  </si>
-  <si>
-    <t>5.2.2.27</t>
-  </si>
-  <si>
-    <t>5.2.2.28</t>
-  </si>
-  <si>
-    <t>5.2.2.29</t>
-  </si>
-  <si>
     <t>5.2.3</t>
   </si>
   <si>
-    <t>5.2.3.1</t>
-  </si>
-  <si>
-    <t>5.2.3.2</t>
-  </si>
-  <si>
-    <t>5.2.3.3</t>
-  </si>
-  <si>
-    <t>5.2.3.4</t>
-  </si>
-  <si>
-    <t>5.2.3.5</t>
-  </si>
-  <si>
     <t>5.2.4</t>
   </si>
   <si>
-    <t>5.2.4.1</t>
-  </si>
-  <si>
-    <t>5.2.4.2</t>
-  </si>
-  <si>
-    <t>5.2.4.3</t>
-  </si>
-  <si>
     <t>5.2.5</t>
   </si>
   <si>
-    <t>5.2.5.1</t>
-  </si>
-  <si>
-    <t>5.2.5.1.001</t>
-  </si>
-  <si>
-    <t>5.2.5.2</t>
-  </si>
-  <si>
-    <t>5.2.5.2.001</t>
-  </si>
-  <si>
-    <t>5.2.5.3</t>
-  </si>
-  <si>
-    <t>5.2.5.3.001</t>
-  </si>
-  <si>
-    <t>5.2.5.4</t>
-  </si>
-  <si>
-    <t>5.2.5.4.001</t>
-  </si>
-  <si>
-    <t>5.2.5.5</t>
-  </si>
-  <si>
-    <t>5.2.5.5.001</t>
-  </si>
-  <si>
-    <t>5.2.5.6</t>
-  </si>
-  <si>
-    <t>5.2.5.6.001</t>
-  </si>
-  <si>
-    <t>5.2.5.7</t>
-  </si>
-  <si>
-    <t>5.2.5.7.001</t>
-  </si>
-  <si>
-    <t>5.2.5.8</t>
-  </si>
-  <si>
-    <t>5.2.5.8.001</t>
-  </si>
-  <si>
-    <t>5.2.5.9</t>
-  </si>
-  <si>
-    <t>5.2.5.9.001</t>
-  </si>
-  <si>
-    <t>5.2.5.10</t>
-  </si>
-  <si>
-    <t>5.2.5.10.001</t>
-  </si>
-  <si>
-    <t>5.2.5.11</t>
-  </si>
-  <si>
-    <t>5.2.5.11.001</t>
-  </si>
-  <si>
-    <t>5.2.5.12</t>
-  </si>
-  <si>
-    <t>5.2.5.12.001</t>
-  </si>
-  <si>
-    <t>5.2.5.13</t>
-  </si>
-  <si>
-    <t>5.2.5.13.001</t>
-  </si>
-  <si>
-    <t>5.2.5.14</t>
-  </si>
-  <si>
-    <t>5.2.5.14.001</t>
-  </si>
-  <si>
-    <t>5.2.5.15</t>
-  </si>
-  <si>
-    <t>5.2.5.16</t>
-  </si>
-  <si>
-    <t>5.2.5.17</t>
-  </si>
-  <si>
-    <t>5.2.5.18</t>
-  </si>
-  <si>
-    <t>5.2.5.19</t>
-  </si>
-  <si>
-    <t>5.2.5.20</t>
-  </si>
-  <si>
-    <t>5.2.5.21</t>
-  </si>
-  <si>
     <t>5.2.6</t>
   </si>
   <si>
-    <t>5.2.6.1</t>
-  </si>
-  <si>
-    <t>5.2.6.2</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
     <t>5.3.1</t>
   </si>
   <si>
-    <t>5.3.1.1</t>
-  </si>
-  <si>
-    <t>5.3.1.2</t>
-  </si>
-  <si>
-    <t>5.3.1.3</t>
-  </si>
-  <si>
-    <t>5.3.1.4</t>
-  </si>
-  <si>
-    <t>5.3.1.5</t>
-  </si>
-  <si>
-    <t>5.3.1.6</t>
-  </si>
-  <si>
-    <t>5.3.1.7</t>
-  </si>
-  <si>
-    <t>5.3.1.8</t>
-  </si>
-  <si>
-    <t>5.3.1.9</t>
-  </si>
-  <si>
-    <t>5.3.1.10</t>
-  </si>
-  <si>
-    <t>5.3.1.11</t>
-  </si>
-  <si>
-    <t>5.3.1.12</t>
-  </si>
-  <si>
-    <t>5.3.1.13</t>
-  </si>
-  <si>
-    <t>5.3.1.14</t>
-  </si>
-  <si>
-    <t>5.3.1.15</t>
-  </si>
-  <si>
-    <t>5.3.1.16</t>
-  </si>
-  <si>
     <t>5.3.2</t>
   </si>
   <si>
-    <t>5.3.2.1</t>
-  </si>
-  <si>
-    <t>5.3.2.2</t>
-  </si>
-  <si>
-    <t>5.3.2.3</t>
-  </si>
-  <si>
-    <t>5.3.2.4</t>
-  </si>
-  <si>
-    <t>5.3.2.5</t>
-  </si>
-  <si>
-    <t>5.3.2.6</t>
-  </si>
-  <si>
-    <t>5.3.2.7</t>
-  </si>
-  <si>
-    <t>5.3.2.8</t>
-  </si>
-  <si>
-    <t>5.3.2.9</t>
-  </si>
-  <si>
-    <t>5.3.2.10</t>
-  </si>
-  <si>
-    <t>5.3.2.11</t>
-  </si>
-  <si>
-    <t>5.3.2.12</t>
-  </si>
-  <si>
-    <t>5.3.2.13</t>
-  </si>
-  <si>
-    <t>5.3.2.14</t>
-  </si>
-  <si>
-    <t>5.3.2.15</t>
-  </si>
-  <si>
-    <t>5.3.2.16</t>
-  </si>
-  <si>
-    <t>5.3.2.17</t>
-  </si>
-  <si>
-    <t>5.3.2.18</t>
-  </si>
-  <si>
-    <t>5.3.2.19</t>
-  </si>
-  <si>
-    <t>5.3.2.20</t>
-  </si>
-  <si>
-    <t>5.3.2.21</t>
-  </si>
-  <si>
-    <t>5.3.2.22</t>
-  </si>
-  <si>
-    <t>5.3.2.23</t>
-  </si>
-  <si>
-    <t>5.3.2.24</t>
-  </si>
-  <si>
-    <t>5.3.2.25</t>
-  </si>
-  <si>
-    <t>5.3.2.26</t>
-  </si>
-  <si>
-    <t>5.3.2.27</t>
-  </si>
-  <si>
-    <t>5.3.2.28</t>
-  </si>
-  <si>
-    <t>5.3.2.29</t>
-  </si>
-  <si>
-    <t>5.3.2.30</t>
-  </si>
-  <si>
-    <t>5.3.2.31</t>
-  </si>
-  <si>
-    <t>5.3.2.32</t>
-  </si>
-  <si>
-    <t>5.3.2.33</t>
-  </si>
-  <si>
-    <t>5.3.2.34</t>
-  </si>
-  <si>
     <t>5.3.3</t>
   </si>
   <si>
-    <t>5.3.3.1</t>
-  </si>
-  <si>
-    <t>5.3.3.2</t>
-  </si>
-  <si>
-    <t>5.3.3.3</t>
-  </si>
-  <si>
-    <t>5.3.3.4</t>
-  </si>
-  <si>
-    <t>5.3.3.5</t>
-  </si>
-  <si>
     <t>5.3.4</t>
   </si>
   <si>
-    <t>5.3.4.1</t>
-  </si>
-  <si>
-    <t>5.3.4.2</t>
-  </si>
-  <si>
-    <t>5.3.4.3</t>
-  </si>
-  <si>
-    <t>5.3.4.4</t>
-  </si>
-  <si>
     <t>5.3.5</t>
   </si>
   <si>
-    <t>5.3.5.1</t>
-  </si>
-  <si>
-    <t>5.3.5.2</t>
-  </si>
-  <si>
     <t>5.3.6</t>
   </si>
   <si>
-    <t>5.3.6.1</t>
-  </si>
-  <si>
-    <t>5.3.6.2</t>
-  </si>
-  <si>
-    <t>5.3.6.3</t>
-  </si>
-  <si>
-    <t>5.3.6.4</t>
-  </si>
-  <si>
-    <t>5.3.6.5</t>
-  </si>
-  <si>
-    <t>5.3.6.6</t>
-  </si>
-  <si>
-    <t>5.3.6.7</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
     <t>5.4.1</t>
   </si>
   <si>
-    <t>5.4.1.1</t>
-  </si>
-  <si>
-    <t>5.4.1.2</t>
-  </si>
-  <si>
-    <t>5.4.1.3</t>
-  </si>
-  <si>
-    <t>5.4.1.4</t>
-  </si>
-  <si>
-    <t>5.4.1.5</t>
-  </si>
-  <si>
-    <t>5.4.1.6</t>
-  </si>
-  <si>
     <t>5.5</t>
   </si>
   <si>
     <t>5.5.1</t>
   </si>
   <si>
-    <t>5.5.1.1</t>
-  </si>
-  <si>
-    <t>5.5.1.2</t>
-  </si>
-  <si>
-    <t>5.5.1.3</t>
-  </si>
-  <si>
-    <t>5.5.1.4</t>
-  </si>
-  <si>
-    <t>5.5.1.5</t>
-  </si>
-  <si>
-    <t>5.5.1.6</t>
-  </si>
-  <si>
-    <t>5.5.1.7</t>
-  </si>
-  <si>
-    <t>5.5.1.8</t>
-  </si>
-  <si>
-    <t>5.5.1.9</t>
-  </si>
-  <si>
-    <t>5.5.1.9.001</t>
-  </si>
-  <si>
     <t>5.6</t>
   </si>
   <si>
     <t>5.6.1</t>
   </si>
   <si>
-    <t>5.6.1.1</t>
-  </si>
-  <si>
-    <t>5.6.1.1.001</t>
-  </si>
-  <si>
-    <t>5.6.1.2</t>
-  </si>
-  <si>
-    <t>5.6.1.2.001</t>
-  </si>
-  <si>
-    <t>5.6.1.3</t>
-  </si>
-  <si>
-    <t>5.6.1.3.001</t>
-  </si>
-  <si>
-    <t>5.6.1.4</t>
-  </si>
-  <si>
-    <t>5.6.1.4.001</t>
-  </si>
-  <si>
-    <t>5.6.1.5</t>
-  </si>
-  <si>
-    <t>5.6.1.5.001</t>
-  </si>
-  <si>
     <t>1.1.1.001</t>
   </si>
   <si>
@@ -3224,6 +1928,1302 @@
   </si>
   <si>
     <t>cuenta_presupuesto</t>
+  </si>
+  <si>
+    <t>1.2.3.003</t>
+  </si>
+  <si>
+    <t>1.2.3.004</t>
+  </si>
+  <si>
+    <t>1.2.3.005</t>
+  </si>
+  <si>
+    <t>1.2.3.006</t>
+  </si>
+  <si>
+    <t>1.2.3.007</t>
+  </si>
+  <si>
+    <t>1.2.3.008</t>
+  </si>
+  <si>
+    <t>1.2.3.009</t>
+  </si>
+  <si>
+    <t>1.2.3.010</t>
+  </si>
+  <si>
+    <t>1.2.3.011</t>
+  </si>
+  <si>
+    <t>1.2.3.012</t>
+  </si>
+  <si>
+    <t>1.2.3.013</t>
+  </si>
+  <si>
+    <t>1.2.3.014</t>
+  </si>
+  <si>
+    <t>1.2.3.015</t>
+  </si>
+  <si>
+    <t>1.2.3.016</t>
+  </si>
+  <si>
+    <t>1.2.3.017</t>
+  </si>
+  <si>
+    <t>1.2.3.018</t>
+  </si>
+  <si>
+    <t>1.2.3.019</t>
+  </si>
+  <si>
+    <t>1.2.3.020</t>
+  </si>
+  <si>
+    <t>1.2.3.021</t>
+  </si>
+  <si>
+    <t>1.2.3.022</t>
+  </si>
+  <si>
+    <t>1.2.3.023</t>
+  </si>
+  <si>
+    <t>1.2.3.024</t>
+  </si>
+  <si>
+    <t>1.2.3.025</t>
+  </si>
+  <si>
+    <t>1.2.3.026</t>
+  </si>
+  <si>
+    <t>1.2.3.027</t>
+  </si>
+  <si>
+    <t>1.2.3.028</t>
+  </si>
+  <si>
+    <t>1.2.4.001</t>
+  </si>
+  <si>
+    <t>1.2.5.001</t>
+  </si>
+  <si>
+    <t>1.2.5.002</t>
+  </si>
+  <si>
+    <t>1.2.5.003</t>
+  </si>
+  <si>
+    <t>1.2.5.004</t>
+  </si>
+  <si>
+    <t>1.2.5.005</t>
+  </si>
+  <si>
+    <t>1.2.5.006</t>
+  </si>
+  <si>
+    <t>1.2.5.007</t>
+  </si>
+  <si>
+    <t>1.2.5.008</t>
+  </si>
+  <si>
+    <t>1.2.6.001</t>
+  </si>
+  <si>
+    <t>1.2.6.002</t>
+  </si>
+  <si>
+    <t>1.2.6.003</t>
+  </si>
+  <si>
+    <t>1.2.6.004</t>
+  </si>
+  <si>
+    <t>1.2.6.005</t>
+  </si>
+  <si>
+    <t>1.2.6.006</t>
+  </si>
+  <si>
+    <t>1.2.6.007</t>
+  </si>
+  <si>
+    <t>1.2.6.008</t>
+  </si>
+  <si>
+    <t>1.2.6.009</t>
+  </si>
+  <si>
+    <t>1.2.6.010</t>
+  </si>
+  <si>
+    <t>1.2.6.011</t>
+  </si>
+  <si>
+    <t>1.2.7.001</t>
+  </si>
+  <si>
+    <t>1.2.7.002</t>
+  </si>
+  <si>
+    <t>1.2.7.003</t>
+  </si>
+  <si>
+    <t>1.2.8.001</t>
+  </si>
+  <si>
+    <t>1.2.9.001</t>
+  </si>
+  <si>
+    <t>1.2.9.002</t>
+  </si>
+  <si>
+    <t>1.2.9.003</t>
+  </si>
+  <si>
+    <t>1.2.9.004</t>
+  </si>
+  <si>
+    <t>1.2.9.005</t>
+  </si>
+  <si>
+    <t>1.2.10.001</t>
+  </si>
+  <si>
+    <t>1.2.10.002</t>
+  </si>
+  <si>
+    <t>1.2.10.003</t>
+  </si>
+  <si>
+    <t>1.2.10.004</t>
+  </si>
+  <si>
+    <t>1.2.10.005</t>
+  </si>
+  <si>
+    <t>1.2.10.006</t>
+  </si>
+  <si>
+    <t>1.2.10.007</t>
+  </si>
+  <si>
+    <t>1.2.11.001</t>
+  </si>
+  <si>
+    <t>1.2.11.002</t>
+  </si>
+  <si>
+    <t>1.2.11.003</t>
+  </si>
+  <si>
+    <t>1.2.11.004</t>
+  </si>
+  <si>
+    <t>2.1.1.001</t>
+  </si>
+  <si>
+    <t>2.1.1.002</t>
+  </si>
+  <si>
+    <t>2.1.1.003</t>
+  </si>
+  <si>
+    <t>2.1.1.004</t>
+  </si>
+  <si>
+    <t>2.1.2.001</t>
+  </si>
+  <si>
+    <t>2.1.2.002</t>
+  </si>
+  <si>
+    <t>2.1.2.003</t>
+  </si>
+  <si>
+    <t>2.1.2.004</t>
+  </si>
+  <si>
+    <t>2.1.2.005</t>
+  </si>
+  <si>
+    <t>2.1.2.006</t>
+  </si>
+  <si>
+    <t>2.1.2.007</t>
+  </si>
+  <si>
+    <t>2.1.2.008</t>
+  </si>
+  <si>
+    <t>2.1.2.009</t>
+  </si>
+  <si>
+    <t>2.1.2.010</t>
+  </si>
+  <si>
+    <t>2.1.2.011</t>
+  </si>
+  <si>
+    <t>2.1.2.012</t>
+  </si>
+  <si>
+    <t>2.1.2.013</t>
+  </si>
+  <si>
+    <t>2.1.2.014</t>
+  </si>
+  <si>
+    <t>2.1.2.015</t>
+  </si>
+  <si>
+    <t>2.1.2.016</t>
+  </si>
+  <si>
+    <t>2.1.2.017</t>
+  </si>
+  <si>
+    <t>2.1.2.018</t>
+  </si>
+  <si>
+    <t>2.1.2.019</t>
+  </si>
+  <si>
+    <t>2.1.2.020</t>
+  </si>
+  <si>
+    <t>2.1.2.021</t>
+  </si>
+  <si>
+    <t>2.1.2.022</t>
+  </si>
+  <si>
+    <t>2.1.2.023</t>
+  </si>
+  <si>
+    <t>2.1.3.001</t>
+  </si>
+  <si>
+    <t>2.1.3.002</t>
+  </si>
+  <si>
+    <t>2.1.3.003</t>
+  </si>
+  <si>
+    <t>2.1.3.004</t>
+  </si>
+  <si>
+    <t>2.1.3.005</t>
+  </si>
+  <si>
+    <t>2.1.3.006</t>
+  </si>
+  <si>
+    <t>2.1.3.007</t>
+  </si>
+  <si>
+    <t>2.1.4.001</t>
+  </si>
+  <si>
+    <t>2.1.4.001.001</t>
+  </si>
+  <si>
+    <t>2.1.4.002</t>
+  </si>
+  <si>
+    <t>2.1.4.002.001</t>
+  </si>
+  <si>
+    <t>2.1.4.003</t>
+  </si>
+  <si>
+    <t>2.1.4.003.001</t>
+  </si>
+  <si>
+    <t>2.1.4.004</t>
+  </si>
+  <si>
+    <t>2.1.4.004.001</t>
+  </si>
+  <si>
+    <t>2.1.4.005</t>
+  </si>
+  <si>
+    <t>2.1.4.005.001</t>
+  </si>
+  <si>
+    <t>2.1.4.006</t>
+  </si>
+  <si>
+    <t>2.1.4.006.001</t>
+  </si>
+  <si>
+    <t>2.1.4.007</t>
+  </si>
+  <si>
+    <t>2.1.4.007.001</t>
+  </si>
+  <si>
+    <t>2.1.4.008</t>
+  </si>
+  <si>
+    <t>2.1.4.008.001</t>
+  </si>
+  <si>
+    <t>2.1.4.009</t>
+  </si>
+  <si>
+    <t>2.1.4.009.001</t>
+  </si>
+  <si>
+    <t>2.1.4.010</t>
+  </si>
+  <si>
+    <t>2.1.4.010.001</t>
+  </si>
+  <si>
+    <t>2.1.4.011</t>
+  </si>
+  <si>
+    <t>2.1.4.011.001</t>
+  </si>
+  <si>
+    <t>2.1.4.012</t>
+  </si>
+  <si>
+    <t>2.1.4.012.001</t>
+  </si>
+  <si>
+    <t>2.1.4.013</t>
+  </si>
+  <si>
+    <t>2.1.4.013.001</t>
+  </si>
+  <si>
+    <t>2.1.4.014</t>
+  </si>
+  <si>
+    <t>2.1.4.014.001</t>
+  </si>
+  <si>
+    <t>2.1.4.015</t>
+  </si>
+  <si>
+    <t>2.1.4.015.001</t>
+  </si>
+  <si>
+    <t>2.1.4.016</t>
+  </si>
+  <si>
+    <t>2.1.4.016.001</t>
+  </si>
+  <si>
+    <t>2.1.4.017</t>
+  </si>
+  <si>
+    <t>2.1.4.017.001</t>
+  </si>
+  <si>
+    <t>2.1.4.018</t>
+  </si>
+  <si>
+    <t>2.1.4.018.001</t>
+  </si>
+  <si>
+    <t>2.1.4.019</t>
+  </si>
+  <si>
+    <t>2.1.4.020</t>
+  </si>
+  <si>
+    <t>2.1.4.021</t>
+  </si>
+  <si>
+    <t>2.1.4.022</t>
+  </si>
+  <si>
+    <t>2.1.4.023</t>
+  </si>
+  <si>
+    <t>2.1.4.024</t>
+  </si>
+  <si>
+    <t>2.1.4.025</t>
+  </si>
+  <si>
+    <t>2.1.4.026</t>
+  </si>
+  <si>
+    <t>2.1.5.001</t>
+  </si>
+  <si>
+    <t>2.1.5.002</t>
+  </si>
+  <si>
+    <t>2.1.6.001</t>
+  </si>
+  <si>
+    <t>2.1.6.002</t>
+  </si>
+  <si>
+    <t>2.1.6.003</t>
+  </si>
+  <si>
+    <t>2.2.1.001</t>
+  </si>
+  <si>
+    <t>2.2.1.002</t>
+  </si>
+  <si>
+    <t>2.2.1.003</t>
+  </si>
+  <si>
+    <t>2.2.1.004</t>
+  </si>
+  <si>
+    <t>2.2.1.005</t>
+  </si>
+  <si>
+    <t>2.2.1.006</t>
+  </si>
+  <si>
+    <t>2.2.2.001</t>
+  </si>
+  <si>
+    <t>2.2.2.002</t>
+  </si>
+  <si>
+    <t>2.2.2.003</t>
+  </si>
+  <si>
+    <t>2.2.2.004</t>
+  </si>
+  <si>
+    <t>2.2.2.005</t>
+  </si>
+  <si>
+    <t>2.2.2.006</t>
+  </si>
+  <si>
+    <t>2.2.2.007</t>
+  </si>
+  <si>
+    <t>2.2.2.008</t>
+  </si>
+  <si>
+    <t>2.2.2.009</t>
+  </si>
+  <si>
+    <t>2.2.3.001</t>
+  </si>
+  <si>
+    <t>2.2.3.002</t>
+  </si>
+  <si>
+    <t>2.2.3.003</t>
+  </si>
+  <si>
+    <t>2.2.3.004</t>
+  </si>
+  <si>
+    <t>2.2.4.001</t>
+  </si>
+  <si>
+    <t>2.2.4.002</t>
+  </si>
+  <si>
+    <t>2.2.4.003</t>
+  </si>
+  <si>
+    <t>3.1.1.001</t>
+  </si>
+  <si>
+    <t>3.1.1.002</t>
+  </si>
+  <si>
+    <t>3.1.1.002.001</t>
+  </si>
+  <si>
+    <t>3.1.1.003</t>
+  </si>
+  <si>
+    <t>3.1.2.001</t>
+  </si>
+  <si>
+    <t>3.1.2.001.001</t>
+  </si>
+  <si>
+    <t>3.1.2.002</t>
+  </si>
+  <si>
+    <t>3.1.2.002.001</t>
+  </si>
+  <si>
+    <t>3.1.2.003</t>
+  </si>
+  <si>
+    <t>3.1.2.003.001</t>
+  </si>
+  <si>
+    <t>3.1.2.004</t>
+  </si>
+  <si>
+    <t>3.1.2.005</t>
+  </si>
+  <si>
+    <t>3.1.2.005.001</t>
+  </si>
+  <si>
+    <t>3.1.3.001</t>
+  </si>
+  <si>
+    <t>3.1.3.001.001</t>
+  </si>
+  <si>
+    <t>3.1.4.001</t>
+  </si>
+  <si>
+    <t>3.1.4.001.001</t>
+  </si>
+  <si>
+    <t>3.1.4.002</t>
+  </si>
+  <si>
+    <t>3.1.4.002.001</t>
+  </si>
+  <si>
+    <t>4.1.1.001</t>
+  </si>
+  <si>
+    <t>4.1.1.002</t>
+  </si>
+  <si>
+    <t>4.1.1.003</t>
+  </si>
+  <si>
+    <t>4.1.1.004</t>
+  </si>
+  <si>
+    <t>4.1.1.005</t>
+  </si>
+  <si>
+    <t>4.1.1.006</t>
+  </si>
+  <si>
+    <t>4.1.1.007</t>
+  </si>
+  <si>
+    <t>4.1.1.008</t>
+  </si>
+  <si>
+    <t>4.1.1.009</t>
+  </si>
+  <si>
+    <t>4.1.1.010</t>
+  </si>
+  <si>
+    <t>4.2.1.001</t>
+  </si>
+  <si>
+    <t>4.2.1.002</t>
+  </si>
+  <si>
+    <t>4.2.1.003</t>
+  </si>
+  <si>
+    <t>4.2.1.004</t>
+  </si>
+  <si>
+    <t>4.2.1.005</t>
+  </si>
+  <si>
+    <t>4.2.1.006</t>
+  </si>
+  <si>
+    <t>4.3.1.001</t>
+  </si>
+  <si>
+    <t>4.3.1.002</t>
+  </si>
+  <si>
+    <t>4.3.1.003</t>
+  </si>
+  <si>
+    <t>4.3.1.004</t>
+  </si>
+  <si>
+    <t>4.3.1.005</t>
+  </si>
+  <si>
+    <t>4.3.1.005.001</t>
+  </si>
+  <si>
+    <t>4.3.1.006</t>
+  </si>
+  <si>
+    <t>4.3.1.007</t>
+  </si>
+  <si>
+    <t>4.3.1.008</t>
+  </si>
+  <si>
+    <t>4.3.1.008.001</t>
+  </si>
+  <si>
+    <t>4.3.1.009</t>
+  </si>
+  <si>
+    <t>4.3.1.010</t>
+  </si>
+  <si>
+    <t>4.3.1.011</t>
+  </si>
+  <si>
+    <t>4.3.1.012</t>
+  </si>
+  <si>
+    <t>4.4.1.001</t>
+  </si>
+  <si>
+    <t>4.4.1.001.001</t>
+  </si>
+  <si>
+    <t>4.4.1.002</t>
+  </si>
+  <si>
+    <t>4.4.1.002.001</t>
+  </si>
+  <si>
+    <t>4.4.1.003</t>
+  </si>
+  <si>
+    <t>4.4.1.003.001</t>
+  </si>
+  <si>
+    <t>4.4.1.004</t>
+  </si>
+  <si>
+    <t>4.4.1.004.001</t>
+  </si>
+  <si>
+    <t>4.4.1.005</t>
+  </si>
+  <si>
+    <t>4.4.1.005.001</t>
+  </si>
+  <si>
+    <t>5.1.1.001</t>
+  </si>
+  <si>
+    <t>5.1.1.002</t>
+  </si>
+  <si>
+    <t>5.1.1.003</t>
+  </si>
+  <si>
+    <t>5.1.1.004</t>
+  </si>
+  <si>
+    <t>5.1.1.005</t>
+  </si>
+  <si>
+    <t>5.1.1.006</t>
+  </si>
+  <si>
+    <t>5.1.1.007</t>
+  </si>
+  <si>
+    <t>5.1.1.008</t>
+  </si>
+  <si>
+    <t>5.1.2.001</t>
+  </si>
+  <si>
+    <t>5.1.2.002</t>
+  </si>
+  <si>
+    <t>5.1.2.003</t>
+  </si>
+  <si>
+    <t>5.1.2.004</t>
+  </si>
+  <si>
+    <t>5.1.2.005</t>
+  </si>
+  <si>
+    <t>5.1.3.001</t>
+  </si>
+  <si>
+    <t>5.1.3.002</t>
+  </si>
+  <si>
+    <t>5.1.3.003</t>
+  </si>
+  <si>
+    <t>5.1.4.001</t>
+  </si>
+  <si>
+    <t>5.2.1.001</t>
+  </si>
+  <si>
+    <t>5.2.1.002</t>
+  </si>
+  <si>
+    <t>5.2.1.003</t>
+  </si>
+  <si>
+    <t>5.2.1.004</t>
+  </si>
+  <si>
+    <t>5.2.1.005</t>
+  </si>
+  <si>
+    <t>5.2.1.006</t>
+  </si>
+  <si>
+    <t>5.2.1.007</t>
+  </si>
+  <si>
+    <t>5.2.1.008</t>
+  </si>
+  <si>
+    <t>5.2.1.009</t>
+  </si>
+  <si>
+    <t>5.2.1.010</t>
+  </si>
+  <si>
+    <t>5.2.1.011</t>
+  </si>
+  <si>
+    <t>5.2.1.012</t>
+  </si>
+  <si>
+    <t>5.2.1.013</t>
+  </si>
+  <si>
+    <t>5.2.1.014</t>
+  </si>
+  <si>
+    <t>5.2.1.015</t>
+  </si>
+  <si>
+    <t>5.2.1.016</t>
+  </si>
+  <si>
+    <t>5.2.1.017</t>
+  </si>
+  <si>
+    <t>5.2.2.001</t>
+  </si>
+  <si>
+    <t>5.2.2.002</t>
+  </si>
+  <si>
+    <t>5.2.2.003</t>
+  </si>
+  <si>
+    <t>5.2.2.004</t>
+  </si>
+  <si>
+    <t>5.2.2.005</t>
+  </si>
+  <si>
+    <t>5.2.2.006</t>
+  </si>
+  <si>
+    <t>5.2.2.007</t>
+  </si>
+  <si>
+    <t>5.2.2.008</t>
+  </si>
+  <si>
+    <t>5.2.2.009</t>
+  </si>
+  <si>
+    <t>5.2.2.010</t>
+  </si>
+  <si>
+    <t>5.2.2.011</t>
+  </si>
+  <si>
+    <t>5.2.2.012</t>
+  </si>
+  <si>
+    <t>5.2.2.013</t>
+  </si>
+  <si>
+    <t>5.2.2.014</t>
+  </si>
+  <si>
+    <t>5.2.2.015</t>
+  </si>
+  <si>
+    <t>5.2.2.016</t>
+  </si>
+  <si>
+    <t>5.2.2.017</t>
+  </si>
+  <si>
+    <t>5.2.2.018</t>
+  </si>
+  <si>
+    <t>5.2.2.019</t>
+  </si>
+  <si>
+    <t>5.2.2.020</t>
+  </si>
+  <si>
+    <t>5.2.2.021</t>
+  </si>
+  <si>
+    <t>5.2.2.022</t>
+  </si>
+  <si>
+    <t>5.2.2.023</t>
+  </si>
+  <si>
+    <t>5.2.2.024</t>
+  </si>
+  <si>
+    <t>5.2.2.025</t>
+  </si>
+  <si>
+    <t>5.2.2.026</t>
+  </si>
+  <si>
+    <t>5.2.2.027</t>
+  </si>
+  <si>
+    <t>5.2.2.028</t>
+  </si>
+  <si>
+    <t>5.2.2.029</t>
+  </si>
+  <si>
+    <t>5.2.3.001</t>
+  </si>
+  <si>
+    <t>5.2.3.002</t>
+  </si>
+  <si>
+    <t>5.2.3.003</t>
+  </si>
+  <si>
+    <t>5.2.3.004</t>
+  </si>
+  <si>
+    <t>5.2.3.005</t>
+  </si>
+  <si>
+    <t>5.2.4.001</t>
+  </si>
+  <si>
+    <t>5.2.4.002</t>
+  </si>
+  <si>
+    <t>5.2.4.003</t>
+  </si>
+  <si>
+    <t>5.2.5.001</t>
+  </si>
+  <si>
+    <t>5.2.5.001.001</t>
+  </si>
+  <si>
+    <t>5.2.5.002</t>
+  </si>
+  <si>
+    <t>5.2.5.002.001</t>
+  </si>
+  <si>
+    <t>5.2.5.003</t>
+  </si>
+  <si>
+    <t>5.2.5.003.001</t>
+  </si>
+  <si>
+    <t>5.2.5.004</t>
+  </si>
+  <si>
+    <t>5.2.5.005</t>
+  </si>
+  <si>
+    <t>5.2.5.004.001</t>
+  </si>
+  <si>
+    <t>5.2.5.005.001</t>
+  </si>
+  <si>
+    <t>5.2.5.006</t>
+  </si>
+  <si>
+    <t>5.2.5.006.001</t>
+  </si>
+  <si>
+    <t>5.2.5.007</t>
+  </si>
+  <si>
+    <t>5.2.5.007.001</t>
+  </si>
+  <si>
+    <t>5.2.5.008</t>
+  </si>
+  <si>
+    <t>5.2.5.008.001</t>
+  </si>
+  <si>
+    <t>5.2.5.009</t>
+  </si>
+  <si>
+    <t>5.2.5.009.001</t>
+  </si>
+  <si>
+    <t>5.2.5.010</t>
+  </si>
+  <si>
+    <t>5.2.5.010.001</t>
+  </si>
+  <si>
+    <t>5.2.5.011</t>
+  </si>
+  <si>
+    <t>5.2.5.011.001</t>
+  </si>
+  <si>
+    <t>5.2.5.012</t>
+  </si>
+  <si>
+    <t>5.2.5.012.001</t>
+  </si>
+  <si>
+    <t>5.2.5.013</t>
+  </si>
+  <si>
+    <t>5.2.5.013.001</t>
+  </si>
+  <si>
+    <t>5.2.5.014</t>
+  </si>
+  <si>
+    <t>5.2.5.014.001</t>
+  </si>
+  <si>
+    <t>5.2.5.015</t>
+  </si>
+  <si>
+    <t>5.2.5.016</t>
+  </si>
+  <si>
+    <t>5.6.1.005.001</t>
+  </si>
+  <si>
+    <t>5.6.1.005</t>
+  </si>
+  <si>
+    <t>5.6.1.004.001</t>
+  </si>
+  <si>
+    <t>5.6.1.004</t>
+  </si>
+  <si>
+    <t>5.6.1.003.001</t>
+  </si>
+  <si>
+    <t>5.6.1.003</t>
+  </si>
+  <si>
+    <t>5.6.1.002.001</t>
+  </si>
+  <si>
+    <t>5.6.1.002</t>
+  </si>
+  <si>
+    <t>5.6.1.001.001</t>
+  </si>
+  <si>
+    <t>5.6.1.001</t>
+  </si>
+  <si>
+    <t>5.5.1.009.001</t>
+  </si>
+  <si>
+    <t>5.5.1.009</t>
+  </si>
+  <si>
+    <t>5.5.1.008</t>
+  </si>
+  <si>
+    <t>5.5.1.007</t>
+  </si>
+  <si>
+    <t>5.5.1.006</t>
+  </si>
+  <si>
+    <t>5.5.1.005</t>
+  </si>
+  <si>
+    <t>5.5.1.004</t>
+  </si>
+  <si>
+    <t>5.5.1.003</t>
+  </si>
+  <si>
+    <t>5.5.1.002</t>
+  </si>
+  <si>
+    <t>5.5.1.001</t>
+  </si>
+  <si>
+    <t>5.4.1.006</t>
+  </si>
+  <si>
+    <t>5.4.1.005</t>
+  </si>
+  <si>
+    <t>5.4.1.004</t>
+  </si>
+  <si>
+    <t>5.4.1.003</t>
+  </si>
+  <si>
+    <t>5.4.1.002</t>
+  </si>
+  <si>
+    <t>5.4.1.001</t>
+  </si>
+  <si>
+    <t>5.3.6.007</t>
+  </si>
+  <si>
+    <t>5.3.6.006</t>
+  </si>
+  <si>
+    <t>5.3.6.005</t>
+  </si>
+  <si>
+    <t>5.3.6.004</t>
+  </si>
+  <si>
+    <t>5.3.6.003</t>
+  </si>
+  <si>
+    <t>5.3.6.002</t>
+  </si>
+  <si>
+    <t>5.3.6.001</t>
+  </si>
+  <si>
+    <t>5.3.5.002</t>
+  </si>
+  <si>
+    <t>5.3.5.001</t>
+  </si>
+  <si>
+    <t>5.3.4.004</t>
+  </si>
+  <si>
+    <t>5.3.4.003</t>
+  </si>
+  <si>
+    <t>5.3.4.002</t>
+  </si>
+  <si>
+    <t>5.3.4.001</t>
+  </si>
+  <si>
+    <t>5.3.3.005</t>
+  </si>
+  <si>
+    <t>5.3.3.004</t>
+  </si>
+  <si>
+    <t>5.3.3.003</t>
+  </si>
+  <si>
+    <t>5.3.3.002</t>
+  </si>
+  <si>
+    <t>5.3.3.001</t>
+  </si>
+  <si>
+    <t>5.3.2.034</t>
+  </si>
+  <si>
+    <t>5.3.2.033</t>
+  </si>
+  <si>
+    <t>5.3.2.032</t>
+  </si>
+  <si>
+    <t>5.3.2.031</t>
+  </si>
+  <si>
+    <t>5.3.2.030</t>
+  </si>
+  <si>
+    <t>5.3.2.029</t>
+  </si>
+  <si>
+    <t>5.3.2.028</t>
+  </si>
+  <si>
+    <t>5.3.2.027</t>
+  </si>
+  <si>
+    <t>5.3.2.026</t>
+  </si>
+  <si>
+    <t>5.3.2.025</t>
+  </si>
+  <si>
+    <t>5.3.2.024</t>
+  </si>
+  <si>
+    <t>5.3.2.023</t>
+  </si>
+  <si>
+    <t>5.3.2.022</t>
+  </si>
+  <si>
+    <t>5.3.2.021</t>
+  </si>
+  <si>
+    <t>5.3.2.020</t>
+  </si>
+  <si>
+    <t>5.3.2.019</t>
+  </si>
+  <si>
+    <t>5.3.2.018</t>
+  </si>
+  <si>
+    <t>5.3.2.017</t>
+  </si>
+  <si>
+    <t>5.3.2.016</t>
+  </si>
+  <si>
+    <t>5.3.2.015</t>
+  </si>
+  <si>
+    <t>5.3.2.014</t>
+  </si>
+  <si>
+    <t>5.3.2.013</t>
+  </si>
+  <si>
+    <t>5.3.2.012</t>
+  </si>
+  <si>
+    <t>5.3.2.011</t>
+  </si>
+  <si>
+    <t>5.3.2.010</t>
+  </si>
+  <si>
+    <t>5.3.2.009</t>
+  </si>
+  <si>
+    <t>5.3.2.008</t>
+  </si>
+  <si>
+    <t>5.3.2.007</t>
+  </si>
+  <si>
+    <t>5.3.2.006</t>
+  </si>
+  <si>
+    <t>5.3.2.005</t>
+  </si>
+  <si>
+    <t>5.3.2.004</t>
+  </si>
+  <si>
+    <t>5.3.2.003</t>
+  </si>
+  <si>
+    <t>5.3.2.002</t>
+  </si>
+  <si>
+    <t>5.3.2.001</t>
+  </si>
+  <si>
+    <t>5.3.1.016</t>
+  </si>
+  <si>
+    <t>5.3.1.015</t>
+  </si>
+  <si>
+    <t>5.3.1.014</t>
+  </si>
+  <si>
+    <t>5.3.1.013</t>
+  </si>
+  <si>
+    <t>5.3.1.012</t>
+  </si>
+  <si>
+    <t>5.3.1.011</t>
+  </si>
+  <si>
+    <t>5.3.1.010</t>
+  </si>
+  <si>
+    <t>5.3.1.009</t>
+  </si>
+  <si>
+    <t>5.3.1.008</t>
+  </si>
+  <si>
+    <t>5.3.1.007</t>
+  </si>
+  <si>
+    <t>5.3.1.006</t>
+  </si>
+  <si>
+    <t>5.3.1.005</t>
+  </si>
+  <si>
+    <t>5.3.1.004</t>
+  </si>
+  <si>
+    <t>5.3.1.003</t>
+  </si>
+  <si>
+    <t>5.3.1.002</t>
+  </si>
+  <si>
+    <t>5.3.1.001</t>
+  </si>
+  <si>
+    <t>5.2.6.002</t>
+  </si>
+  <si>
+    <t>5.2.6.001</t>
+  </si>
+  <si>
+    <t>5.2.5.021</t>
+  </si>
+  <si>
+    <t>5.2.5.020</t>
+  </si>
+  <si>
+    <t>5.2.5.019</t>
+  </si>
+  <si>
+    <t>5.2.5.018</t>
+  </si>
+  <si>
+    <t>5.2.5.017</t>
   </si>
 </sst>
 </file>
@@ -3298,7 +3298,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3607,14 +3607,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L598" sqref="L598"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="74.44140625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -3640,16 +3640,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1065</v>
+        <v>633</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1064</v>
+        <v>632</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1066</v>
+        <v>634</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1067</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1063</v>
+        <v>631</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -7113,7 +7113,7 @@
         <v>408</v>
       </c>
       <c r="C110" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="D110" t="s">
         <v>102</v>
@@ -7145,7 +7145,7 @@
         <v>408</v>
       </c>
       <c r="C111" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="D111" t="s">
         <v>103</v>
@@ -7177,7 +7177,7 @@
         <v>408</v>
       </c>
       <c r="C112" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="D112" t="s">
         <v>104</v>
@@ -7209,7 +7209,7 @@
         <v>408</v>
       </c>
       <c r="C113" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="D113" t="s">
         <v>105</v>
@@ -7241,7 +7241,7 @@
         <v>408</v>
       </c>
       <c r="C114" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="D114" t="s">
         <v>106</v>
@@ -7273,7 +7273,7 @@
         <v>408</v>
       </c>
       <c r="C115" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="D115" t="s">
         <v>107</v>
@@ -7305,7 +7305,7 @@
         <v>408</v>
       </c>
       <c r="C116" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="D116" t="s">
         <v>108</v>
@@ -7337,7 +7337,7 @@
         <v>408</v>
       </c>
       <c r="C117" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="D117" t="s">
         <v>109</v>
@@ -7369,7 +7369,7 @@
         <v>408</v>
       </c>
       <c r="C118" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="D118" t="s">
         <v>110</v>
@@ -7401,7 +7401,7 @@
         <v>408</v>
       </c>
       <c r="C119" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="D119" t="s">
         <v>111</v>
@@ -7433,7 +7433,7 @@
         <v>408</v>
       </c>
       <c r="C120" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="D120" t="s">
         <v>112</v>
@@ -7465,7 +7465,7 @@
         <v>408</v>
       </c>
       <c r="C121" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="D121" t="s">
         <v>113</v>
@@ -7497,7 +7497,7 @@
         <v>408</v>
       </c>
       <c r="C122" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="D122" t="s">
         <v>114</v>
@@ -7529,7 +7529,7 @@
         <v>408</v>
       </c>
       <c r="C123" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
       <c r="D123" t="s">
         <v>115</v>
@@ -7561,7 +7561,7 @@
         <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
       <c r="D124" t="s">
         <v>116</v>
@@ -7593,7 +7593,7 @@
         <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>588</v>
+        <v>651</v>
       </c>
       <c r="D125" t="s">
         <v>117</v>
@@ -7625,7 +7625,7 @@
         <v>408</v>
       </c>
       <c r="C126" t="s">
-        <v>589</v>
+        <v>652</v>
       </c>
       <c r="D126" t="s">
         <v>118</v>
@@ -7657,7 +7657,7 @@
         <v>408</v>
       </c>
       <c r="C127" t="s">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="D127" t="s">
         <v>119</v>
@@ -7689,7 +7689,7 @@
         <v>408</v>
       </c>
       <c r="C128" t="s">
-        <v>591</v>
+        <v>654</v>
       </c>
       <c r="D128" t="s">
         <v>120</v>
@@ -7721,7 +7721,7 @@
         <v>408</v>
       </c>
       <c r="C129" t="s">
-        <v>592</v>
+        <v>655</v>
       </c>
       <c r="D129" t="s">
         <v>121</v>
@@ -7753,7 +7753,7 @@
         <v>408</v>
       </c>
       <c r="C130" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="D130" t="s">
         <v>122</v>
@@ -7785,7 +7785,7 @@
         <v>408</v>
       </c>
       <c r="C131" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="D131" t="s">
         <v>123</v>
@@ -7817,7 +7817,7 @@
         <v>408</v>
       </c>
       <c r="C132" t="s">
-        <v>595</v>
+        <v>658</v>
       </c>
       <c r="D132" t="s">
         <v>124</v>
@@ -7849,7 +7849,7 @@
         <v>408</v>
       </c>
       <c r="C133" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="D133" t="s">
         <v>125</v>
@@ -7881,7 +7881,7 @@
         <v>408</v>
       </c>
       <c r="C134" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="D134" t="s">
         <v>54</v>
@@ -7913,7 +7913,7 @@
         <v>408</v>
       </c>
       <c r="C135" t="s">
-        <v>598</v>
+        <v>661</v>
       </c>
       <c r="D135" t="s">
         <v>126</v>
@@ -7945,7 +7945,7 @@
         <v>325</v>
       </c>
       <c r="C136" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="D136" t="s">
         <v>127</v>
@@ -7977,7 +7977,7 @@
         <v>549</v>
       </c>
       <c r="C137" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="D137" t="s">
         <v>128</v>
@@ -8009,7 +8009,7 @@
         <v>325</v>
       </c>
       <c r="C138" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="D138" t="s">
         <v>129</v>
@@ -8041,7 +8041,7 @@
         <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="D139" t="s">
         <v>130</v>
@@ -8073,7 +8073,7 @@
         <v>555</v>
       </c>
       <c r="C140" t="s">
-        <v>603</v>
+        <v>664</v>
       </c>
       <c r="D140" t="s">
         <v>131</v>
@@ -8105,7 +8105,7 @@
         <v>555</v>
       </c>
       <c r="C141" t="s">
-        <v>604</v>
+        <v>665</v>
       </c>
       <c r="D141" t="s">
         <v>132</v>
@@ -8137,7 +8137,7 @@
         <v>555</v>
       </c>
       <c r="C142" t="s">
-        <v>605</v>
+        <v>666</v>
       </c>
       <c r="D142" t="s">
         <v>133</v>
@@ -8169,7 +8169,7 @@
         <v>555</v>
       </c>
       <c r="C143" t="s">
-        <v>606</v>
+        <v>667</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
@@ -8201,7 +8201,7 @@
         <v>555</v>
       </c>
       <c r="C144" t="s">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="D144" t="s">
         <v>135</v>
@@ -8233,7 +8233,7 @@
         <v>555</v>
       </c>
       <c r="C145" t="s">
-        <v>608</v>
+        <v>669</v>
       </c>
       <c r="D145" t="s">
         <v>136</v>
@@ -8265,7 +8265,7 @@
         <v>555</v>
       </c>
       <c r="C146" t="s">
-        <v>609</v>
+        <v>670</v>
       </c>
       <c r="D146" t="s">
         <v>137</v>
@@ -8297,7 +8297,7 @@
         <v>325</v>
       </c>
       <c r="C147" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="D147" t="s">
         <v>138</v>
@@ -8329,7 +8329,7 @@
         <v>596</v>
       </c>
       <c r="C148" t="s">
-        <v>611</v>
+        <v>671</v>
       </c>
       <c r="D148" t="s">
         <v>139</v>
@@ -8361,7 +8361,7 @@
         <v>596</v>
       </c>
       <c r="C149" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="D149" t="s">
         <v>140</v>
@@ -8393,7 +8393,7 @@
         <v>596</v>
       </c>
       <c r="C150" t="s">
-        <v>613</v>
+        <v>673</v>
       </c>
       <c r="D150" t="s">
         <v>141</v>
@@ -8425,7 +8425,7 @@
         <v>596</v>
       </c>
       <c r="C151" t="s">
-        <v>614</v>
+        <v>674</v>
       </c>
       <c r="D151" t="s">
         <v>142</v>
@@ -8457,7 +8457,7 @@
         <v>596</v>
       </c>
       <c r="C152" t="s">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="D152" t="s">
         <v>143</v>
@@ -8489,7 +8489,7 @@
         <v>596</v>
       </c>
       <c r="C153" t="s">
-        <v>616</v>
+        <v>676</v>
       </c>
       <c r="D153" t="s">
         <v>144</v>
@@ -8521,7 +8521,7 @@
         <v>596</v>
       </c>
       <c r="C154" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="D154" t="s">
         <v>145</v>
@@ -8553,7 +8553,7 @@
         <v>596</v>
       </c>
       <c r="C155" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="D155" t="s">
         <v>146</v>
@@ -8585,7 +8585,7 @@
         <v>596</v>
       </c>
       <c r="C156" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="D156" t="s">
         <v>147</v>
@@ -8617,7 +8617,7 @@
         <v>596</v>
       </c>
       <c r="C157" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="D157" t="s">
         <v>148</v>
@@ -8649,7 +8649,7 @@
         <v>596</v>
       </c>
       <c r="C158" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="D158" t="s">
         <v>149</v>
@@ -8681,7 +8681,7 @@
         <v>325</v>
       </c>
       <c r="C159" t="s">
-        <v>622</v>
+        <v>576</v>
       </c>
       <c r="D159" t="s">
         <v>71</v>
@@ -8713,7 +8713,7 @@
         <v>652</v>
       </c>
       <c r="C160" t="s">
-        <v>623</v>
+        <v>682</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -8745,7 +8745,7 @@
         <v>652</v>
       </c>
       <c r="C161" t="s">
-        <v>624</v>
+        <v>683</v>
       </c>
       <c r="D161" t="s">
         <v>151</v>
@@ -8777,7 +8777,7 @@
         <v>652</v>
       </c>
       <c r="C162" t="s">
-        <v>625</v>
+        <v>684</v>
       </c>
       <c r="D162" t="s">
         <v>152</v>
@@ -8809,7 +8809,7 @@
         <v>325</v>
       </c>
       <c r="C163" t="s">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="D163" t="s">
         <v>153</v>
@@ -8841,7 +8841,7 @@
         <v>668</v>
       </c>
       <c r="C164" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="D164" t="s">
         <v>154</v>
@@ -8873,7 +8873,7 @@
         <v>325</v>
       </c>
       <c r="C165" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="D165" t="s">
         <v>155</v>
@@ -8905,7 +8905,7 @@
         <v>674</v>
       </c>
       <c r="C166" t="s">
-        <v>629</v>
+        <v>686</v>
       </c>
       <c r="D166" t="s">
         <v>76</v>
@@ -8937,7 +8937,7 @@
         <v>674</v>
       </c>
       <c r="C167" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
       <c r="D167" t="s">
         <v>156</v>
@@ -8969,7 +8969,7 @@
         <v>674</v>
       </c>
       <c r="C168" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="D168" t="s">
         <v>157</v>
@@ -9001,7 +9001,7 @@
         <v>674</v>
       </c>
       <c r="C169" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
       <c r="D169" t="s">
         <v>158</v>
@@ -9033,7 +9033,7 @@
         <v>674</v>
       </c>
       <c r="C170" t="s">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="D170" t="s">
         <v>136</v>
@@ -9065,7 +9065,7 @@
         <v>325</v>
       </c>
       <c r="C171" t="s">
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="D171" t="s">
         <v>159</v>
@@ -9097,7 +9097,7 @@
         <v>700</v>
       </c>
       <c r="C172" t="s">
-        <v>635</v>
+        <v>691</v>
       </c>
       <c r="D172" t="s">
         <v>160</v>
@@ -9129,7 +9129,7 @@
         <v>700</v>
       </c>
       <c r="C173" t="s">
-        <v>636</v>
+        <v>692</v>
       </c>
       <c r="D173" t="s">
         <v>161</v>
@@ -9161,7 +9161,7 @@
         <v>700</v>
       </c>
       <c r="C174" t="s">
-        <v>637</v>
+        <v>693</v>
       </c>
       <c r="D174" t="s">
         <v>162</v>
@@ -9193,7 +9193,7 @@
         <v>700</v>
       </c>
       <c r="C175" t="s">
-        <v>638</v>
+        <v>694</v>
       </c>
       <c r="D175" t="s">
         <v>163</v>
@@ -9225,7 +9225,7 @@
         <v>700</v>
       </c>
       <c r="C176" t="s">
-        <v>639</v>
+        <v>695</v>
       </c>
       <c r="D176" t="s">
         <v>164</v>
@@ -9257,7 +9257,7 @@
         <v>700</v>
       </c>
       <c r="C177" t="s">
-        <v>640</v>
+        <v>696</v>
       </c>
       <c r="D177" t="s">
         <v>165</v>
@@ -9289,7 +9289,7 @@
         <v>700</v>
       </c>
       <c r="C178" t="s">
-        <v>641</v>
+        <v>697</v>
       </c>
       <c r="D178" t="s">
         <v>136</v>
@@ -9321,7 +9321,7 @@
         <v>325</v>
       </c>
       <c r="C179" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="D179" t="s">
         <v>166</v>
@@ -9353,7 +9353,7 @@
         <v>736</v>
       </c>
       <c r="C180" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="D180" t="s">
         <v>167</v>
@@ -9385,7 +9385,7 @@
         <v>736</v>
       </c>
       <c r="C181" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="D181" t="s">
         <v>168</v>
@@ -9417,7 +9417,7 @@
         <v>736</v>
       </c>
       <c r="C182" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="D182" t="s">
         <v>169</v>
@@ -9449,7 +9449,7 @@
         <v>736</v>
       </c>
       <c r="C183" t="s">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="D183" t="s">
         <v>170</v>
@@ -9510,7 +9510,7 @@
         <v>757</v>
       </c>
       <c r="C185" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
       <c r="D185" t="s">
         <v>172</v>
@@ -9542,7 +9542,7 @@
         <v>758</v>
       </c>
       <c r="C186" t="s">
-        <v>648</v>
+        <v>582</v>
       </c>
       <c r="D186" t="s">
         <v>173</v>
@@ -9574,7 +9574,7 @@
         <v>759</v>
       </c>
       <c r="C187" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="D187" t="s">
         <v>174</v>
@@ -9606,7 +9606,7 @@
         <v>759</v>
       </c>
       <c r="C188" t="s">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="D188" t="s">
         <v>175</v>
@@ -9638,7 +9638,7 @@
         <v>759</v>
       </c>
       <c r="C189" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="D189" t="s">
         <v>176</v>
@@ -9670,7 +9670,7 @@
         <v>759</v>
       </c>
       <c r="C190" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="D190" t="s">
         <v>177</v>
@@ -9702,7 +9702,7 @@
         <v>758</v>
       </c>
       <c r="C191" t="s">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="D191" t="s">
         <v>178</v>
@@ -9714,7 +9714,7 @@
         <v>466</v>
       </c>
       <c r="G191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H191">
         <v>7</v>
@@ -9734,7 +9734,7 @@
         <v>780</v>
       </c>
       <c r="C192" t="s">
-        <v>654</v>
+        <v>706</v>
       </c>
       <c r="D192" t="s">
         <v>179</v>
@@ -9766,7 +9766,7 @@
         <v>780</v>
       </c>
       <c r="C193" t="s">
-        <v>655</v>
+        <v>707</v>
       </c>
       <c r="D193" t="s">
         <v>180</v>
@@ -9798,7 +9798,7 @@
         <v>780</v>
       </c>
       <c r="C194" t="s">
-        <v>656</v>
+        <v>708</v>
       </c>
       <c r="D194" t="s">
         <v>181</v>
@@ -9830,7 +9830,7 @@
         <v>780</v>
       </c>
       <c r="C195" t="s">
-        <v>657</v>
+        <v>709</v>
       </c>
       <c r="D195" t="s">
         <v>182</v>
@@ -9862,7 +9862,7 @@
         <v>780</v>
       </c>
       <c r="C196" t="s">
-        <v>658</v>
+        <v>710</v>
       </c>
       <c r="D196" t="s">
         <v>183</v>
@@ -9894,7 +9894,7 @@
         <v>780</v>
       </c>
       <c r="C197" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="D197" t="s">
         <v>184</v>
@@ -9926,7 +9926,7 @@
         <v>780</v>
       </c>
       <c r="C198" t="s">
-        <v>660</v>
+        <v>712</v>
       </c>
       <c r="D198" t="s">
         <v>185</v>
@@ -9958,7 +9958,7 @@
         <v>780</v>
       </c>
       <c r="C199" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="D199" t="s">
         <v>186</v>
@@ -9990,7 +9990,7 @@
         <v>780</v>
       </c>
       <c r="C200" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="D200" t="s">
         <v>187</v>
@@ -10022,7 +10022,7 @@
         <v>780</v>
       </c>
       <c r="C201" t="s">
-        <v>663</v>
+        <v>715</v>
       </c>
       <c r="D201" t="s">
         <v>188</v>
@@ -10054,7 +10054,7 @@
         <v>780</v>
       </c>
       <c r="C202" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
       <c r="D202" t="s">
         <v>189</v>
@@ -10086,7 +10086,7 @@
         <v>780</v>
       </c>
       <c r="C203" t="s">
-        <v>665</v>
+        <v>717</v>
       </c>
       <c r="D203" t="s">
         <v>190</v>
@@ -10118,7 +10118,7 @@
         <v>780</v>
       </c>
       <c r="C204" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="D204" t="s">
         <v>191</v>
@@ -10150,7 +10150,7 @@
         <v>780</v>
       </c>
       <c r="C205" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="D205" t="s">
         <v>192</v>
@@ -10182,7 +10182,7 @@
         <v>780</v>
       </c>
       <c r="C206" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="D206" t="s">
         <v>193</v>
@@ -10214,7 +10214,7 @@
         <v>780</v>
       </c>
       <c r="C207" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
       <c r="D207" t="s">
         <v>194</v>
@@ -10246,7 +10246,7 @@
         <v>780</v>
       </c>
       <c r="C208" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
       <c r="D208" t="s">
         <v>195</v>
@@ -10278,7 +10278,7 @@
         <v>780</v>
       </c>
       <c r="C209" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="D209" t="s">
         <v>196</v>
@@ -10310,7 +10310,7 @@
         <v>780</v>
       </c>
       <c r="C210" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
       <c r="D210" t="s">
         <v>197</v>
@@ -10342,7 +10342,7 @@
         <v>780</v>
       </c>
       <c r="C211" t="s">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="D211" t="s">
         <v>198</v>
@@ -10374,7 +10374,7 @@
         <v>780</v>
       </c>
       <c r="C212" t="s">
-        <v>674</v>
+        <v>726</v>
       </c>
       <c r="D212" t="s">
         <v>199</v>
@@ -10406,7 +10406,7 @@
         <v>780</v>
       </c>
       <c r="C213" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
       <c r="D213" t="s">
         <v>200</v>
@@ -10438,7 +10438,7 @@
         <v>780</v>
       </c>
       <c r="C214" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
       <c r="D214" t="s">
         <v>201</v>
@@ -10470,7 +10470,7 @@
         <v>758</v>
       </c>
       <c r="C215" t="s">
-        <v>677</v>
+        <v>584</v>
       </c>
       <c r="D215" t="s">
         <v>202</v>
@@ -10502,7 +10502,7 @@
         <v>896</v>
       </c>
       <c r="C216" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="D216" t="s">
         <v>203</v>
@@ -10534,7 +10534,7 @@
         <v>896</v>
       </c>
       <c r="C217" t="s">
-        <v>679</v>
+        <v>730</v>
       </c>
       <c r="D217" t="s">
         <v>204</v>
@@ -10566,7 +10566,7 @@
         <v>896</v>
       </c>
       <c r="C218" t="s">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="D218" t="s">
         <v>205</v>
@@ -10598,7 +10598,7 @@
         <v>896</v>
       </c>
       <c r="C219" t="s">
-        <v>681</v>
+        <v>732</v>
       </c>
       <c r="D219" t="s">
         <v>206</v>
@@ -10630,7 +10630,7 @@
         <v>896</v>
       </c>
       <c r="C220" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
       <c r="D220" t="s">
         <v>207</v>
@@ -10662,7 +10662,7 @@
         <v>896</v>
       </c>
       <c r="C221" t="s">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="D221" t="s">
         <v>208</v>
@@ -10694,7 +10694,7 @@
         <v>896</v>
       </c>
       <c r="C222" t="s">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="D222" t="s">
         <v>209</v>
@@ -10726,7 +10726,7 @@
         <v>758</v>
       </c>
       <c r="C223" t="s">
-        <v>685</v>
+        <v>585</v>
       </c>
       <c r="D223" t="s">
         <v>210</v>
@@ -10758,7 +10758,7 @@
         <v>932</v>
       </c>
       <c r="C224" t="s">
-        <v>686</v>
+        <v>736</v>
       </c>
       <c r="D224" t="s">
         <v>211</v>
@@ -10790,7 +10790,7 @@
         <v>933</v>
       </c>
       <c r="C225" t="s">
-        <v>687</v>
+        <v>737</v>
       </c>
       <c r="D225" t="s">
         <v>211</v>
@@ -10822,7 +10822,7 @@
         <v>932</v>
       </c>
       <c r="C226" t="s">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="D226" t="s">
         <v>212</v>
@@ -10854,7 +10854,7 @@
         <v>935</v>
       </c>
       <c r="C227" t="s">
-        <v>689</v>
+        <v>739</v>
       </c>
       <c r="D227" t="s">
         <v>212</v>
@@ -10886,7 +10886,7 @@
         <v>932</v>
       </c>
       <c r="C228" t="s">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="D228" t="s">
         <v>213</v>
@@ -10918,7 +10918,7 @@
         <v>937</v>
       </c>
       <c r="C229" t="s">
-        <v>691</v>
+        <v>741</v>
       </c>
       <c r="D229" t="s">
         <v>213</v>
@@ -10950,7 +10950,7 @@
         <v>932</v>
       </c>
       <c r="C230" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="D230" t="s">
         <v>214</v>
@@ -10982,7 +10982,7 @@
         <v>939</v>
       </c>
       <c r="C231" t="s">
-        <v>693</v>
+        <v>743</v>
       </c>
       <c r="D231" t="s">
         <v>214</v>
@@ -11014,7 +11014,7 @@
         <v>932</v>
       </c>
       <c r="C232" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="D232" t="s">
         <v>215</v>
@@ -11046,7 +11046,7 @@
         <v>941</v>
       </c>
       <c r="C233" t="s">
-        <v>695</v>
+        <v>745</v>
       </c>
       <c r="D233" t="s">
         <v>215</v>
@@ -11078,7 +11078,7 @@
         <v>932</v>
       </c>
       <c r="C234" t="s">
-        <v>696</v>
+        <v>746</v>
       </c>
       <c r="D234" t="s">
         <v>216</v>
@@ -11110,7 +11110,7 @@
         <v>943</v>
       </c>
       <c r="C235" t="s">
-        <v>697</v>
+        <v>747</v>
       </c>
       <c r="D235" t="s">
         <v>216</v>
@@ -11142,7 +11142,7 @@
         <v>932</v>
       </c>
       <c r="C236" t="s">
-        <v>698</v>
+        <v>748</v>
       </c>
       <c r="D236" t="s">
         <v>217</v>
@@ -11174,7 +11174,7 @@
         <v>945</v>
       </c>
       <c r="C237" t="s">
-        <v>699</v>
+        <v>749</v>
       </c>
       <c r="D237" t="s">
         <v>217</v>
@@ -11206,7 +11206,7 @@
         <v>932</v>
       </c>
       <c r="C238" t="s">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="D238" t="s">
         <v>218</v>
@@ -11238,7 +11238,7 @@
         <v>947</v>
       </c>
       <c r="C239" t="s">
-        <v>701</v>
+        <v>751</v>
       </c>
       <c r="D239" t="s">
         <v>218</v>
@@ -11270,7 +11270,7 @@
         <v>932</v>
       </c>
       <c r="C240" t="s">
-        <v>702</v>
+        <v>752</v>
       </c>
       <c r="D240" t="s">
         <v>219</v>
@@ -11302,7 +11302,7 @@
         <v>949</v>
       </c>
       <c r="C241" t="s">
-        <v>703</v>
+        <v>753</v>
       </c>
       <c r="D241" t="s">
         <v>219</v>
@@ -11334,7 +11334,7 @@
         <v>932</v>
       </c>
       <c r="C242" t="s">
-        <v>704</v>
+        <v>754</v>
       </c>
       <c r="D242" t="s">
         <v>220</v>
@@ -11366,7 +11366,7 @@
         <v>951</v>
       </c>
       <c r="C243" t="s">
-        <v>705</v>
+        <v>755</v>
       </c>
       <c r="D243" t="s">
         <v>220</v>
@@ -11398,7 +11398,7 @@
         <v>932</v>
       </c>
       <c r="C244" t="s">
-        <v>706</v>
+        <v>756</v>
       </c>
       <c r="D244" t="s">
         <v>221</v>
@@ -11430,7 +11430,7 @@
         <v>953</v>
       </c>
       <c r="C245" t="s">
-        <v>707</v>
+        <v>757</v>
       </c>
       <c r="D245" t="s">
         <v>221</v>
@@ -11462,7 +11462,7 @@
         <v>932</v>
       </c>
       <c r="C246" t="s">
-        <v>708</v>
+        <v>758</v>
       </c>
       <c r="D246" t="s">
         <v>222</v>
@@ -11494,7 +11494,7 @@
         <v>955</v>
       </c>
       <c r="C247" t="s">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="D247" t="s">
         <v>222</v>
@@ -11526,7 +11526,7 @@
         <v>932</v>
       </c>
       <c r="C248" t="s">
-        <v>710</v>
+        <v>760</v>
       </c>
       <c r="D248" t="s">
         <v>223</v>
@@ -11558,7 +11558,7 @@
         <v>957</v>
       </c>
       <c r="C249" t="s">
-        <v>711</v>
+        <v>761</v>
       </c>
       <c r="D249" t="s">
         <v>223</v>
@@ -11590,7 +11590,7 @@
         <v>932</v>
       </c>
       <c r="C250" t="s">
-        <v>712</v>
+        <v>762</v>
       </c>
       <c r="D250" t="s">
         <v>224</v>
@@ -11622,7 +11622,7 @@
         <v>959</v>
       </c>
       <c r="C251" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
       <c r="D251" t="s">
         <v>224</v>
@@ -11654,7 +11654,7 @@
         <v>932</v>
       </c>
       <c r="C252" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="D252" t="s">
         <v>225</v>
@@ -11686,7 +11686,7 @@
         <v>961</v>
       </c>
       <c r="C253" t="s">
-        <v>715</v>
+        <v>765</v>
       </c>
       <c r="D253" t="s">
         <v>225</v>
@@ -11718,7 +11718,7 @@
         <v>932</v>
       </c>
       <c r="C254" t="s">
-        <v>716</v>
+        <v>766</v>
       </c>
       <c r="D254" t="s">
         <v>226</v>
@@ -11750,7 +11750,7 @@
         <v>963</v>
       </c>
       <c r="C255" t="s">
-        <v>717</v>
+        <v>767</v>
       </c>
       <c r="D255" t="s">
         <v>226</v>
@@ -11782,7 +11782,7 @@
         <v>932</v>
       </c>
       <c r="C256" t="s">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="D256" t="s">
         <v>227</v>
@@ -11814,7 +11814,7 @@
         <v>965</v>
       </c>
       <c r="C257" t="s">
-        <v>719</v>
+        <v>769</v>
       </c>
       <c r="D257" t="s">
         <v>227</v>
@@ -11846,7 +11846,7 @@
         <v>932</v>
       </c>
       <c r="C258" t="s">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="D258" t="s">
         <v>228</v>
@@ -11878,7 +11878,7 @@
         <v>967</v>
       </c>
       <c r="C259" t="s">
-        <v>721</v>
+        <v>771</v>
       </c>
       <c r="D259" t="s">
         <v>228</v>
@@ -11910,7 +11910,7 @@
         <v>932</v>
       </c>
       <c r="C260" t="s">
-        <v>722</v>
+        <v>772</v>
       </c>
       <c r="D260" t="s">
         <v>229</v>
@@ -11942,7 +11942,7 @@
         <v>932</v>
       </c>
       <c r="C261" t="s">
-        <v>723</v>
+        <v>773</v>
       </c>
       <c r="D261" t="s">
         <v>230</v>
@@ -11974,7 +11974,7 @@
         <v>932</v>
       </c>
       <c r="C262" t="s">
-        <v>724</v>
+        <v>774</v>
       </c>
       <c r="D262" t="s">
         <v>231</v>
@@ -12006,7 +12006,7 @@
         <v>932</v>
       </c>
       <c r="C263" t="s">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="D263" t="s">
         <v>232</v>
@@ -12038,7 +12038,7 @@
         <v>932</v>
       </c>
       <c r="C264" t="s">
-        <v>726</v>
+        <v>776</v>
       </c>
       <c r="D264" t="s">
         <v>233</v>
@@ -12070,7 +12070,7 @@
         <v>932</v>
       </c>
       <c r="C265" t="s">
-        <v>727</v>
+        <v>777</v>
       </c>
       <c r="D265" t="s">
         <v>234</v>
@@ -12102,7 +12102,7 @@
         <v>932</v>
       </c>
       <c r="C266" t="s">
-        <v>728</v>
+        <v>778</v>
       </c>
       <c r="D266" t="s">
         <v>235</v>
@@ -12134,7 +12134,7 @@
         <v>932</v>
       </c>
       <c r="C267" t="s">
-        <v>729</v>
+        <v>779</v>
       </c>
       <c r="D267" t="s">
         <v>236</v>
@@ -12166,7 +12166,7 @@
         <v>758</v>
       </c>
       <c r="C268" t="s">
-        <v>730</v>
+        <v>586</v>
       </c>
       <c r="D268" t="s">
         <v>237</v>
@@ -12198,7 +12198,7 @@
         <v>1009</v>
       </c>
       <c r="C269" t="s">
-        <v>731</v>
+        <v>780</v>
       </c>
       <c r="D269" t="s">
         <v>238</v>
@@ -12230,7 +12230,7 @@
         <v>1009</v>
       </c>
       <c r="C270" t="s">
-        <v>732</v>
+        <v>781</v>
       </c>
       <c r="D270" t="s">
         <v>239</v>
@@ -12262,7 +12262,7 @@
         <v>758</v>
       </c>
       <c r="C271" t="s">
-        <v>733</v>
+        <v>587</v>
       </c>
       <c r="D271" t="s">
         <v>240</v>
@@ -12294,7 +12294,7 @@
         <v>1020</v>
       </c>
       <c r="C272" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="D272" t="s">
         <v>241</v>
@@ -12326,7 +12326,7 @@
         <v>1020</v>
       </c>
       <c r="C273" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="D273" t="s">
         <v>242</v>
@@ -12358,7 +12358,7 @@
         <v>1020</v>
       </c>
       <c r="C274" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="D274" t="s">
         <v>243</v>
@@ -12390,7 +12390,7 @@
         <v>757</v>
       </c>
       <c r="C275" t="s">
-        <v>737</v>
+        <v>588</v>
       </c>
       <c r="D275" t="s">
         <v>244</v>
@@ -12422,7 +12422,7 @@
         <v>1036</v>
       </c>
       <c r="C276" t="s">
-        <v>738</v>
+        <v>589</v>
       </c>
       <c r="D276" t="s">
         <v>245</v>
@@ -12454,7 +12454,7 @@
         <v>1037</v>
       </c>
       <c r="C277" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="D277" t="s">
         <v>174</v>
@@ -12486,7 +12486,7 @@
         <v>1037</v>
       </c>
       <c r="C278" t="s">
-        <v>740</v>
+        <v>786</v>
       </c>
       <c r="D278" t="s">
         <v>175</v>
@@ -12518,7 +12518,7 @@
         <v>1037</v>
       </c>
       <c r="C279" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="D279" t="s">
         <v>246</v>
@@ -12550,7 +12550,7 @@
         <v>1037</v>
       </c>
       <c r="C280" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
       <c r="D280" t="s">
         <v>176</v>
@@ -12582,7 +12582,7 @@
         <v>1037</v>
       </c>
       <c r="C281" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="D281" t="s">
         <v>177</v>
@@ -12614,7 +12614,7 @@
         <v>1037</v>
       </c>
       <c r="C282" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="D282" t="s">
         <v>247</v>
@@ -12646,7 +12646,7 @@
         <v>1036</v>
       </c>
       <c r="C283" t="s">
-        <v>745</v>
+        <v>590</v>
       </c>
       <c r="D283" t="s">
         <v>248</v>
@@ -12678,7 +12678,7 @@
         <v>1068</v>
       </c>
       <c r="C284" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="D284" t="s">
         <v>249</v>
@@ -12710,7 +12710,7 @@
         <v>1068</v>
       </c>
       <c r="C285" t="s">
-        <v>747</v>
+        <v>792</v>
       </c>
       <c r="D285" t="s">
         <v>180</v>
@@ -12742,7 +12742,7 @@
         <v>1068</v>
       </c>
       <c r="C286" t="s">
-        <v>748</v>
+        <v>793</v>
       </c>
       <c r="D286" t="s">
         <v>181</v>
@@ -12774,7 +12774,7 @@
         <v>1068</v>
       </c>
       <c r="C287" t="s">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="D287" t="s">
         <v>182</v>
@@ -12806,7 +12806,7 @@
         <v>1068</v>
       </c>
       <c r="C288" t="s">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c r="D288" t="s">
         <v>183</v>
@@ -12838,7 +12838,7 @@
         <v>1068</v>
       </c>
       <c r="C289" t="s">
-        <v>751</v>
+        <v>796</v>
       </c>
       <c r="D289" t="s">
         <v>184</v>
@@ -12870,7 +12870,7 @@
         <v>1068</v>
       </c>
       <c r="C290" t="s">
-        <v>752</v>
+        <v>797</v>
       </c>
       <c r="D290" t="s">
         <v>186</v>
@@ -12902,7 +12902,7 @@
         <v>1068</v>
       </c>
       <c r="C291" t="s">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="D291" t="s">
         <v>189</v>
@@ -12934,7 +12934,7 @@
         <v>1068</v>
       </c>
       <c r="C292" t="s">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="D292" t="s">
         <v>201</v>
@@ -12966,7 +12966,7 @@
         <v>1036</v>
       </c>
       <c r="C293" t="s">
-        <v>755</v>
+        <v>591</v>
       </c>
       <c r="D293" t="s">
         <v>250</v>
@@ -12998,7 +12998,7 @@
         <v>1114</v>
       </c>
       <c r="C294" t="s">
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="D294" t="s">
         <v>251</v>
@@ -13030,7 +13030,7 @@
         <v>1114</v>
       </c>
       <c r="C295" t="s">
-        <v>757</v>
+        <v>801</v>
       </c>
       <c r="D295" t="s">
         <v>252</v>
@@ -13062,7 +13062,7 @@
         <v>1114</v>
       </c>
       <c r="C296" t="s">
-        <v>758</v>
+        <v>802</v>
       </c>
       <c r="D296" t="s">
         <v>253</v>
@@ -13094,7 +13094,7 @@
         <v>1114</v>
       </c>
       <c r="C297" t="s">
-        <v>759</v>
+        <v>803</v>
       </c>
       <c r="D297" t="s">
         <v>254</v>
@@ -13126,7 +13126,7 @@
         <v>1036</v>
       </c>
       <c r="C298" t="s">
-        <v>760</v>
+        <v>592</v>
       </c>
       <c r="D298" t="s">
         <v>255</v>
@@ -13158,7 +13158,7 @@
         <v>1135</v>
       </c>
       <c r="C299" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="D299" t="s">
         <v>241</v>
@@ -13190,7 +13190,7 @@
         <v>1135</v>
       </c>
       <c r="C300" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="D300" t="s">
         <v>256</v>
@@ -13222,7 +13222,7 @@
         <v>1135</v>
       </c>
       <c r="C301" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
       <c r="D301" t="s">
         <v>243</v>
@@ -13283,7 +13283,7 @@
         <v>1151</v>
       </c>
       <c r="C303" t="s">
-        <v>764</v>
+        <v>593</v>
       </c>
       <c r="D303" t="s">
         <v>257</v>
@@ -13315,7 +13315,7 @@
         <v>1152</v>
       </c>
       <c r="C304" t="s">
-        <v>765</v>
+        <v>594</v>
       </c>
       <c r="D304" t="s">
         <v>258</v>
@@ -13347,7 +13347,7 @@
         <v>1153</v>
       </c>
       <c r="C305" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="D305" t="s">
         <v>259</v>
@@ -13379,7 +13379,7 @@
         <v>1153</v>
       </c>
       <c r="C306" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="D306" t="s">
         <v>260</v>
@@ -13411,7 +13411,7 @@
         <v>1157</v>
       </c>
       <c r="C307" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="D307" t="s">
         <v>260</v>
@@ -13443,7 +13443,7 @@
         <v>1153</v>
       </c>
       <c r="C308" t="s">
-        <v>769</v>
+        <v>810</v>
       </c>
       <c r="D308" t="s">
         <v>261</v>
@@ -13475,7 +13475,7 @@
         <v>1152</v>
       </c>
       <c r="C309" t="s">
-        <v>770</v>
+        <v>595</v>
       </c>
       <c r="D309" t="s">
         <v>262</v>
@@ -13507,7 +13507,7 @@
         <v>1164</v>
       </c>
       <c r="C310" t="s">
-        <v>771</v>
+        <v>811</v>
       </c>
       <c r="D310" t="s">
         <v>263</v>
@@ -13539,7 +13539,7 @@
         <v>1165</v>
       </c>
       <c r="C311" t="s">
-        <v>772</v>
+        <v>812</v>
       </c>
       <c r="D311" t="s">
         <v>263</v>
@@ -13571,7 +13571,7 @@
         <v>1164</v>
       </c>
       <c r="C312" t="s">
-        <v>773</v>
+        <v>813</v>
       </c>
       <c r="D312" t="s">
         <v>264</v>
@@ -13603,7 +13603,7 @@
         <v>1167</v>
       </c>
       <c r="C313" t="s">
-        <v>774</v>
+        <v>814</v>
       </c>
       <c r="D313" t="s">
         <v>264</v>
@@ -13635,7 +13635,7 @@
         <v>1164</v>
       </c>
       <c r="C314" t="s">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="D314" t="s">
         <v>265</v>
@@ -13667,7 +13667,7 @@
         <v>1169</v>
       </c>
       <c r="C315" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="D315" t="s">
         <v>265</v>
@@ -13699,7 +13699,7 @@
         <v>1164</v>
       </c>
       <c r="C316" t="s">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="D316" t="s">
         <v>266</v>
@@ -13731,7 +13731,7 @@
         <v>1164</v>
       </c>
       <c r="C317" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
       <c r="D317" t="s">
         <v>267</v>
@@ -13763,7 +13763,7 @@
         <v>1176</v>
       </c>
       <c r="C318" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="D318" t="s">
         <v>267</v>
@@ -13795,7 +13795,7 @@
         <v>1152</v>
       </c>
       <c r="C319" t="s">
-        <v>780</v>
+        <v>596</v>
       </c>
       <c r="D319" t="s">
         <v>268</v>
@@ -13827,7 +13827,7 @@
         <v>1178</v>
       </c>
       <c r="C320" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
       <c r="D320" t="s">
         <v>268</v>
@@ -13859,7 +13859,7 @@
         <v>1179</v>
       </c>
       <c r="C321" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="D321" t="s">
         <v>268</v>
@@ -13891,7 +13891,7 @@
         <v>1152</v>
       </c>
       <c r="C322" t="s">
-        <v>783</v>
+        <v>597</v>
       </c>
       <c r="D322" t="s">
         <v>269</v>
@@ -13923,7 +13923,7 @@
         <v>1181</v>
       </c>
       <c r="C323" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="D323" t="s">
         <v>270</v>
@@ -13955,7 +13955,7 @@
         <v>1182</v>
       </c>
       <c r="C324" t="s">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="D324" t="s">
         <v>270</v>
@@ -13987,7 +13987,7 @@
         <v>1181</v>
       </c>
       <c r="C325" t="s">
-        <v>786</v>
+        <v>824</v>
       </c>
       <c r="D325" t="s">
         <v>271</v>
@@ -14019,7 +14019,7 @@
         <v>1184</v>
       </c>
       <c r="C326" t="s">
-        <v>787</v>
+        <v>825</v>
       </c>
       <c r="D326" t="s">
         <v>271</v>
@@ -14080,7 +14080,7 @@
         <v>1186</v>
       </c>
       <c r="C328" t="s">
-        <v>788</v>
+        <v>598</v>
       </c>
       <c r="D328" t="s">
         <v>273</v>
@@ -14112,7 +14112,7 @@
         <v>1187</v>
       </c>
       <c r="C329" t="s">
-        <v>789</v>
+        <v>599</v>
       </c>
       <c r="D329" t="s">
         <v>274</v>
@@ -14144,7 +14144,7 @@
         <v>1188</v>
       </c>
       <c r="C330" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="D330" t="s">
         <v>275</v>
@@ -14176,7 +14176,7 @@
         <v>1188</v>
       </c>
       <c r="C331" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="D331" t="s">
         <v>276</v>
@@ -14208,7 +14208,7 @@
         <v>1188</v>
       </c>
       <c r="C332" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="D332" t="s">
         <v>277</v>
@@ -14240,7 +14240,7 @@
         <v>1188</v>
       </c>
       <c r="C333" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="D333" t="s">
         <v>278</v>
@@ -14272,7 +14272,7 @@
         <v>1188</v>
       </c>
       <c r="C334" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="D334" t="s">
         <v>279</v>
@@ -14304,7 +14304,7 @@
         <v>1188</v>
       </c>
       <c r="C335" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="D335" t="s">
         <v>280</v>
@@ -14336,7 +14336,7 @@
         <v>1188</v>
       </c>
       <c r="C336" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="D336" t="s">
         <v>281</v>
@@ -14368,7 +14368,7 @@
         <v>1188</v>
       </c>
       <c r="C337" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
       <c r="D337" t="s">
         <v>282</v>
@@ -14400,7 +14400,7 @@
         <v>1188</v>
       </c>
       <c r="C338" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="D338" t="s">
         <v>283</v>
@@ -14432,7 +14432,7 @@
         <v>1188</v>
       </c>
       <c r="C339" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
       <c r="D339" t="s">
         <v>284</v>
@@ -14464,7 +14464,7 @@
         <v>1186</v>
       </c>
       <c r="C340" t="s">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D340" t="s">
         <v>285</v>
@@ -14496,7 +14496,7 @@
         <v>1239</v>
       </c>
       <c r="C341" t="s">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="D341" t="s">
         <v>286</v>
@@ -14528,7 +14528,7 @@
         <v>1240</v>
       </c>
       <c r="C342" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="D342" t="s">
         <v>287</v>
@@ -14560,7 +14560,7 @@
         <v>1240</v>
       </c>
       <c r="C343" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="D343" t="s">
         <v>288</v>
@@ -14592,7 +14592,7 @@
         <v>1240</v>
       </c>
       <c r="C344" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="D344" t="s">
         <v>289</v>
@@ -14624,7 +14624,7 @@
         <v>1240</v>
       </c>
       <c r="C345" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="D345" t="s">
         <v>290</v>
@@ -14656,7 +14656,7 @@
         <v>1240</v>
       </c>
       <c r="C346" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="D346" t="s">
         <v>291</v>
@@ -14688,7 +14688,7 @@
         <v>1240</v>
       </c>
       <c r="C347" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="D347" t="s">
         <v>292</v>
@@ -14720,7 +14720,7 @@
         <v>1186</v>
       </c>
       <c r="C348" t="s">
-        <v>808</v>
+        <v>602</v>
       </c>
       <c r="D348" t="s">
         <v>293</v>
@@ -14752,7 +14752,7 @@
         <v>1271</v>
       </c>
       <c r="C349" t="s">
-        <v>809</v>
+        <v>603</v>
       </c>
       <c r="D349" t="s">
         <v>293</v>
@@ -14784,7 +14784,7 @@
         <v>1272</v>
       </c>
       <c r="C350" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="D350" t="s">
         <v>294</v>
@@ -14816,7 +14816,7 @@
         <v>1272</v>
       </c>
       <c r="C351" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="D351" t="s">
         <v>295</v>
@@ -14848,7 +14848,7 @@
         <v>1272</v>
       </c>
       <c r="C352" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="D352" t="s">
         <v>296</v>
@@ -14880,7 +14880,7 @@
         <v>1272</v>
       </c>
       <c r="C353" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="D353" t="s">
         <v>297</v>
@@ -14912,7 +14912,7 @@
         <v>1272</v>
       </c>
       <c r="C354" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="D354" t="s">
         <v>298</v>
@@ -14944,7 +14944,7 @@
         <v>1293</v>
       </c>
       <c r="C355" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="D355" t="s">
         <v>298</v>
@@ -14976,7 +14976,7 @@
         <v>1272</v>
       </c>
       <c r="C356" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="D356" t="s">
         <v>299</v>
@@ -15008,7 +15008,7 @@
         <v>1272</v>
       </c>
       <c r="C357" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="D357" t="s">
         <v>300</v>
@@ -15040,7 +15040,7 @@
         <v>1272</v>
       </c>
       <c r="C358" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="D358" t="s">
         <v>301</v>
@@ -15072,7 +15072,7 @@
         <v>1305</v>
       </c>
       <c r="C359" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="D359" t="s">
         <v>301</v>
@@ -15104,7 +15104,7 @@
         <v>1272</v>
       </c>
       <c r="C360" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="D360" t="s">
         <v>302</v>
@@ -15136,7 +15136,7 @@
         <v>1272</v>
       </c>
       <c r="C361" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="D361" t="s">
         <v>303</v>
@@ -15168,7 +15168,7 @@
         <v>1272</v>
       </c>
       <c r="C362" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="D362" t="s">
         <v>304</v>
@@ -15200,7 +15200,7 @@
         <v>1272</v>
       </c>
       <c r="C363" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="D363" t="s">
         <v>293</v>
@@ -15232,7 +15232,7 @@
         <v>1186</v>
       </c>
       <c r="C364" t="s">
-        <v>824</v>
+        <v>604</v>
       </c>
       <c r="D364" t="s">
         <v>305</v>
@@ -15264,7 +15264,7 @@
         <v>1327</v>
       </c>
       <c r="C365" t="s">
-        <v>825</v>
+        <v>605</v>
       </c>
       <c r="D365" t="s">
         <v>305</v>
@@ -15296,7 +15296,7 @@
         <v>1328</v>
       </c>
       <c r="C366" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
       <c r="D366" t="s">
         <v>306</v>
@@ -15328,7 +15328,7 @@
         <v>1329</v>
       </c>
       <c r="C367" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="D367" t="s">
         <v>306</v>
@@ -15360,7 +15360,7 @@
         <v>1328</v>
       </c>
       <c r="C368" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="D368" t="s">
         <v>307</v>
@@ -15392,7 +15392,7 @@
         <v>1331</v>
       </c>
       <c r="C369" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
       <c r="D369" t="s">
         <v>307</v>
@@ -15424,7 +15424,7 @@
         <v>1328</v>
       </c>
       <c r="C370" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="D370" t="s">
         <v>308</v>
@@ -15456,7 +15456,7 @@
         <v>1333</v>
       </c>
       <c r="C371" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="D371" t="s">
         <v>308</v>
@@ -15488,7 +15488,7 @@
         <v>1328</v>
       </c>
       <c r="C372" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="D372" t="s">
         <v>309</v>
@@ -15520,7 +15520,7 @@
         <v>1335</v>
       </c>
       <c r="C373" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="D373" t="s">
         <v>309</v>
@@ -15552,7 +15552,7 @@
         <v>1328</v>
       </c>
       <c r="C374" t="s">
-        <v>834</v>
+        <v>864</v>
       </c>
       <c r="D374" t="s">
         <v>310</v>
@@ -15584,7 +15584,7 @@
         <v>1337</v>
       </c>
       <c r="C375" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="D375" t="s">
         <v>310</v>
@@ -15645,7 +15645,7 @@
         <v>1339</v>
       </c>
       <c r="C377" t="s">
-        <v>836</v>
+        <v>606</v>
       </c>
       <c r="D377" t="s">
         <v>312</v>
@@ -15677,7 +15677,7 @@
         <v>1340</v>
       </c>
       <c r="C378" t="s">
-        <v>837</v>
+        <v>607</v>
       </c>
       <c r="D378" t="s">
         <v>313</v>
@@ -15709,7 +15709,7 @@
         <v>1341</v>
       </c>
       <c r="C379" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="D379" t="s">
         <v>314</v>
@@ -15741,7 +15741,7 @@
         <v>1341</v>
       </c>
       <c r="C380" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D380" t="s">
         <v>315</v>
@@ -15773,7 +15773,7 @@
         <v>1341</v>
       </c>
       <c r="C381" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="D381" t="s">
         <v>316</v>
@@ -15805,7 +15805,7 @@
         <v>1341</v>
       </c>
       <c r="C382" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="D382" t="s">
         <v>317</v>
@@ -15837,7 +15837,7 @@
         <v>1341</v>
       </c>
       <c r="C383" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="D383" t="s">
         <v>318</v>
@@ -15869,7 +15869,7 @@
         <v>1341</v>
       </c>
       <c r="C384" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="D384" t="s">
         <v>319</v>
@@ -15901,7 +15901,7 @@
         <v>1341</v>
       </c>
       <c r="C385" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="D385" t="s">
         <v>320</v>
@@ -15933,7 +15933,7 @@
         <v>1341</v>
       </c>
       <c r="C386" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="D386" t="s">
         <v>321</v>
@@ -15965,7 +15965,7 @@
         <v>1340</v>
       </c>
       <c r="C387" t="s">
-        <v>846</v>
+        <v>608</v>
       </c>
       <c r="D387" t="s">
         <v>322</v>
@@ -15997,7 +15997,7 @@
         <v>1382</v>
       </c>
       <c r="C388" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="D388" t="s">
         <v>323</v>
@@ -16029,7 +16029,7 @@
         <v>1382</v>
       </c>
       <c r="C389" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="D389" t="s">
         <v>324</v>
@@ -16061,7 +16061,7 @@
         <v>1382</v>
       </c>
       <c r="C390" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="D390" t="s">
         <v>325</v>
@@ -16093,7 +16093,7 @@
         <v>1382</v>
       </c>
       <c r="C391" t="s">
-        <v>850</v>
+        <v>877</v>
       </c>
       <c r="D391" t="s">
         <v>326</v>
@@ -16125,7 +16125,7 @@
         <v>1382</v>
       </c>
       <c r="C392" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="D392" t="s">
         <v>327</v>
@@ -16157,7 +16157,7 @@
         <v>1340</v>
       </c>
       <c r="C393" t="s">
-        <v>852</v>
+        <v>609</v>
       </c>
       <c r="D393" t="s">
         <v>328</v>
@@ -16189,7 +16189,7 @@
         <v>1408</v>
       </c>
       <c r="C394" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="D394" t="s">
         <v>329</v>
@@ -16221,7 +16221,7 @@
         <v>1408</v>
       </c>
       <c r="C395" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
       <c r="D395" t="s">
         <v>330</v>
@@ -16253,7 +16253,7 @@
         <v>1408</v>
       </c>
       <c r="C396" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="D396" t="s">
         <v>331</v>
@@ -16285,7 +16285,7 @@
         <v>1340</v>
       </c>
       <c r="C397" t="s">
-        <v>856</v>
+        <v>610</v>
       </c>
       <c r="D397" t="s">
         <v>332</v>
@@ -16317,7 +16317,7 @@
         <v>1424</v>
       </c>
       <c r="C398" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="D398" t="s">
         <v>332</v>
@@ -16349,7 +16349,7 @@
         <v>1339</v>
       </c>
       <c r="C399" t="s">
-        <v>858</v>
+        <v>611</v>
       </c>
       <c r="D399" t="s">
         <v>333</v>
@@ -16381,7 +16381,7 @@
         <v>1430</v>
       </c>
       <c r="C400" t="s">
-        <v>859</v>
+        <v>612</v>
       </c>
       <c r="D400" t="s">
         <v>334</v>
@@ -16413,7 +16413,7 @@
         <v>1431</v>
       </c>
       <c r="C401" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="D401" t="s">
         <v>335</v>
@@ -16445,7 +16445,7 @@
         <v>1431</v>
       </c>
       <c r="C402" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="D402" t="s">
         <v>336</v>
@@ -16477,7 +16477,7 @@
         <v>1431</v>
       </c>
       <c r="C403" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="D403" t="s">
         <v>337</v>
@@ -16509,7 +16509,7 @@
         <v>1431</v>
       </c>
       <c r="C404" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="D404" t="s">
         <v>338</v>
@@ -16541,7 +16541,7 @@
         <v>1431</v>
       </c>
       <c r="C405" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="D405" t="s">
         <v>339</v>
@@ -16573,7 +16573,7 @@
         <v>1431</v>
       </c>
       <c r="C406" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="D406" t="s">
         <v>340</v>
@@ -16605,7 +16605,7 @@
         <v>1431</v>
       </c>
       <c r="C407" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="D407" t="s">
         <v>341</v>
@@ -16637,7 +16637,7 @@
         <v>1431</v>
       </c>
       <c r="C408" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="D408" t="s">
         <v>342</v>
@@ -16669,7 +16669,7 @@
         <v>1431</v>
       </c>
       <c r="C409" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="D409" t="s">
         <v>343</v>
@@ -16701,7 +16701,7 @@
         <v>1431</v>
       </c>
       <c r="C410" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="D410" t="s">
         <v>344</v>
@@ -16733,7 +16733,7 @@
         <v>1431</v>
       </c>
       <c r="C411" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="D411" t="s">
         <v>345</v>
@@ -16765,7 +16765,7 @@
         <v>1431</v>
       </c>
       <c r="C412" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="D412" t="s">
         <v>346</v>
@@ -16797,7 +16797,7 @@
         <v>1431</v>
       </c>
       <c r="C413" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="D413" t="s">
         <v>347</v>
@@ -16829,7 +16829,7 @@
         <v>1431</v>
       </c>
       <c r="C414" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
       <c r="D414" t="s">
         <v>348</v>
@@ -16861,7 +16861,7 @@
         <v>1431</v>
       </c>
       <c r="C415" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="D415" t="s">
         <v>349</v>
@@ -16893,7 +16893,7 @@
         <v>1431</v>
       </c>
       <c r="C416" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="D416" t="s">
         <v>350</v>
@@ -16925,7 +16925,7 @@
         <v>1431</v>
       </c>
       <c r="C417" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="D417" t="s">
         <v>351</v>
@@ -16957,7 +16957,7 @@
         <v>1430</v>
       </c>
       <c r="C418" t="s">
-        <v>877</v>
+        <v>613</v>
       </c>
       <c r="D418" t="s">
         <v>352</v>
@@ -16989,7 +16989,7 @@
         <v>1517</v>
       </c>
       <c r="C419" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="D419" t="s">
         <v>353</v>
@@ -17021,7 +17021,7 @@
         <v>1517</v>
       </c>
       <c r="C420" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="D420" t="s">
         <v>354</v>
@@ -17053,7 +17053,7 @@
         <v>1517</v>
       </c>
       <c r="C421" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="D421" t="s">
         <v>355</v>
@@ -17085,7 +17085,7 @@
         <v>1517</v>
       </c>
       <c r="C422" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="D422" t="s">
         <v>356</v>
@@ -17117,7 +17117,7 @@
         <v>1517</v>
       </c>
       <c r="C423" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="D423" t="s">
         <v>357</v>
@@ -17149,7 +17149,7 @@
         <v>1517</v>
       </c>
       <c r="C424" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
       <c r="D424" t="s">
         <v>358</v>
@@ -17181,7 +17181,7 @@
         <v>1517</v>
       </c>
       <c r="C425" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D425" t="s">
         <v>359</v>
@@ -17213,7 +17213,7 @@
         <v>1517</v>
       </c>
       <c r="C426" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="D426" t="s">
         <v>360</v>
@@ -17245,7 +17245,7 @@
         <v>1517</v>
       </c>
       <c r="C427" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="D427" t="s">
         <v>361</v>
@@ -17277,7 +17277,7 @@
         <v>1517</v>
       </c>
       <c r="C428" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
       <c r="D428" t="s">
         <v>362</v>
@@ -17309,7 +17309,7 @@
         <v>1517</v>
       </c>
       <c r="C429" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="D429" t="s">
         <v>363</v>
@@ -17341,7 +17341,7 @@
         <v>1517</v>
       </c>
       <c r="C430" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="D430" t="s">
         <v>364</v>
@@ -17373,7 +17373,7 @@
         <v>1517</v>
       </c>
       <c r="C431" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="D431" t="s">
         <v>365</v>
@@ -17405,7 +17405,7 @@
         <v>1517</v>
       </c>
       <c r="C432" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="D432" t="s">
         <v>366</v>
@@ -17437,7 +17437,7 @@
         <v>1517</v>
       </c>
       <c r="C433" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="D433" t="s">
         <v>367</v>
@@ -17469,7 +17469,7 @@
         <v>1517</v>
       </c>
       <c r="C434" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="D434" t="s">
         <v>368</v>
@@ -17501,7 +17501,7 @@
         <v>1517</v>
       </c>
       <c r="C435" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
       <c r="D435" t="s">
         <v>369</v>
@@ -17533,7 +17533,7 @@
         <v>1517</v>
       </c>
       <c r="C436" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="D436" t="s">
         <v>370</v>
@@ -17565,7 +17565,7 @@
         <v>1517</v>
       </c>
       <c r="C437" t="s">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="D437" t="s">
         <v>371</v>
@@ -17597,7 +17597,7 @@
         <v>1517</v>
       </c>
       <c r="C438" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="D438" t="s">
         <v>372</v>
@@ -17629,7 +17629,7 @@
         <v>1517</v>
       </c>
       <c r="C439" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="D439" t="s">
         <v>373</v>
@@ -17661,7 +17661,7 @@
         <v>1517</v>
       </c>
       <c r="C440" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="D440" t="s">
         <v>374</v>
@@ -17693,7 +17693,7 @@
         <v>1517</v>
       </c>
       <c r="C441" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="D441" t="s">
         <v>375</v>
@@ -17725,7 +17725,7 @@
         <v>1517</v>
       </c>
       <c r="C442" t="s">
-        <v>901</v>
+        <v>923</v>
       </c>
       <c r="D442" t="s">
         <v>376</v>
@@ -17757,7 +17757,7 @@
         <v>1517</v>
       </c>
       <c r="C443" t="s">
-        <v>902</v>
+        <v>924</v>
       </c>
       <c r="D443" t="s">
         <v>377</v>
@@ -17789,7 +17789,7 @@
         <v>1517</v>
       </c>
       <c r="C444" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
       <c r="D444" t="s">
         <v>378</v>
@@ -17821,7 +17821,7 @@
         <v>1517</v>
       </c>
       <c r="C445" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="D445" t="s">
         <v>379</v>
@@ -17853,7 +17853,7 @@
         <v>1517</v>
       </c>
       <c r="C446" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="D446" t="s">
         <v>380</v>
@@ -17885,7 +17885,7 @@
         <v>1517</v>
       </c>
       <c r="C447" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="D447" t="s">
         <v>381</v>
@@ -17917,7 +17917,7 @@
         <v>1430</v>
       </c>
       <c r="C448" t="s">
-        <v>907</v>
+        <v>614</v>
       </c>
       <c r="D448" t="s">
         <v>382</v>
@@ -17949,7 +17949,7 @@
         <v>1663</v>
       </c>
       <c r="C449" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="D449" t="s">
         <v>383</v>
@@ -17981,7 +17981,7 @@
         <v>1663</v>
       </c>
       <c r="C450" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="D450" t="s">
         <v>384</v>
@@ -18013,7 +18013,7 @@
         <v>1663</v>
       </c>
       <c r="C451" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
       <c r="D451" t="s">
         <v>385</v>
@@ -18045,7 +18045,7 @@
         <v>1663</v>
       </c>
       <c r="C452" t="s">
-        <v>911</v>
+        <v>932</v>
       </c>
       <c r="D452" t="s">
         <v>386</v>
@@ -18077,7 +18077,7 @@
         <v>1663</v>
       </c>
       <c r="C453" t="s">
-        <v>912</v>
+        <v>933</v>
       </c>
       <c r="D453" t="s">
         <v>387</v>
@@ -18109,7 +18109,7 @@
         <v>1430</v>
       </c>
       <c r="C454" t="s">
-        <v>913</v>
+        <v>615</v>
       </c>
       <c r="D454" t="s">
         <v>388</v>
@@ -18141,7 +18141,7 @@
         <v>1689</v>
       </c>
       <c r="C455" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="D455" t="s">
         <v>389</v>
@@ -18173,7 +18173,7 @@
         <v>1689</v>
       </c>
       <c r="C456" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="D456" t="s">
         <v>390</v>
@@ -18205,7 +18205,7 @@
         <v>1689</v>
       </c>
       <c r="C457" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="D457" t="s">
         <v>391</v>
@@ -18237,7 +18237,7 @@
         <v>1430</v>
       </c>
       <c r="C458" t="s">
-        <v>917</v>
+        <v>616</v>
       </c>
       <c r="D458" t="s">
         <v>392</v>
@@ -18269,7 +18269,7 @@
         <v>1705</v>
       </c>
       <c r="C459" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="D459" t="s">
         <v>393</v>
@@ -18301,7 +18301,7 @@
         <v>1706</v>
       </c>
       <c r="C460" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="D460" t="s">
         <v>393</v>
@@ -18333,7 +18333,7 @@
         <v>1705</v>
       </c>
       <c r="C461" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="D461" t="s">
         <v>394</v>
@@ -18365,7 +18365,7 @@
         <v>1708</v>
       </c>
       <c r="C462" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="D462" t="s">
         <v>394</v>
@@ -18397,7 +18397,7 @@
         <v>1705</v>
       </c>
       <c r="C463" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="D463" t="s">
         <v>395</v>
@@ -18429,7 +18429,7 @@
         <v>1710</v>
       </c>
       <c r="C464" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="D464" t="s">
         <v>395</v>
@@ -18461,7 +18461,7 @@
         <v>1705</v>
       </c>
       <c r="C465" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="D465" t="s">
         <v>396</v>
@@ -18493,7 +18493,7 @@
         <v>1712</v>
       </c>
       <c r="C466" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="D466" t="s">
         <v>396</v>
@@ -18525,7 +18525,7 @@
         <v>1705</v>
       </c>
       <c r="C467" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="D467" t="s">
         <v>397</v>
@@ -18557,7 +18557,7 @@
         <v>1714</v>
       </c>
       <c r="C468" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
       <c r="D468" t="s">
         <v>398</v>
@@ -18589,7 +18589,7 @@
         <v>1705</v>
       </c>
       <c r="C469" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="D469" t="s">
         <v>399</v>
@@ -18621,7 +18621,7 @@
         <v>1716</v>
       </c>
       <c r="C470" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="D470" t="s">
         <v>399</v>
@@ -18653,7 +18653,7 @@
         <v>1705</v>
       </c>
       <c r="C471" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="D471" t="s">
         <v>400</v>
@@ -18685,7 +18685,7 @@
         <v>1718</v>
       </c>
       <c r="C472" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="D472" t="s">
         <v>400</v>
@@ -18717,7 +18717,7 @@
         <v>1705</v>
       </c>
       <c r="C473" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="D473" t="s">
         <v>401</v>
@@ -18749,7 +18749,7 @@
         <v>1720</v>
       </c>
       <c r="C474" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="D474" t="s">
         <v>402</v>
@@ -18781,7 +18781,7 @@
         <v>1705</v>
       </c>
       <c r="C475" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="D475" t="s">
         <v>403</v>
@@ -18813,7 +18813,7 @@
         <v>1722</v>
       </c>
       <c r="C476" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="D476" t="s">
         <v>403</v>
@@ -18845,7 +18845,7 @@
         <v>1705</v>
       </c>
       <c r="C477" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="D477" t="s">
         <v>404</v>
@@ -18877,7 +18877,7 @@
         <v>1724</v>
       </c>
       <c r="C478" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="D478" t="s">
         <v>405</v>
@@ -18909,7 +18909,7 @@
         <v>1705</v>
       </c>
       <c r="C479" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="D479" t="s">
         <v>406</v>
@@ -18941,7 +18941,7 @@
         <v>1726</v>
       </c>
       <c r="C480" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="D480" t="s">
         <v>407</v>
@@ -18973,7 +18973,7 @@
         <v>1705</v>
       </c>
       <c r="C481" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="D481" t="s">
         <v>408</v>
@@ -19005,7 +19005,7 @@
         <v>1728</v>
       </c>
       <c r="C482" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="D482" t="s">
         <v>408</v>
@@ -19037,7 +19037,7 @@
         <v>1705</v>
       </c>
       <c r="C483" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="D483" t="s">
         <v>409</v>
@@ -19069,7 +19069,7 @@
         <v>1730</v>
       </c>
       <c r="C484" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="D484" t="s">
         <v>409</v>
@@ -19101,7 +19101,7 @@
         <v>1705</v>
       </c>
       <c r="C485" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="D485" t="s">
         <v>410</v>
@@ -19133,7 +19133,7 @@
         <v>1732</v>
       </c>
       <c r="C486" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="D486" t="s">
         <v>410</v>
@@ -19165,7 +19165,7 @@
         <v>1705</v>
       </c>
       <c r="C487" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="D487" t="s">
         <v>411</v>
@@ -19197,7 +19197,7 @@
         <v>1705</v>
       </c>
       <c r="C488" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="D488" t="s">
         <v>412</v>
@@ -19229,7 +19229,7 @@
         <v>1705</v>
       </c>
       <c r="C489" t="s">
-        <v>948</v>
+        <v>1067</v>
       </c>
       <c r="D489" t="s">
         <v>413</v>
@@ -19261,7 +19261,7 @@
         <v>1705</v>
       </c>
       <c r="C490" t="s">
-        <v>949</v>
+        <v>1066</v>
       </c>
       <c r="D490" t="s">
         <v>414</v>
@@ -19293,7 +19293,7 @@
         <v>1705</v>
       </c>
       <c r="C491" t="s">
-        <v>950</v>
+        <v>1065</v>
       </c>
       <c r="D491" t="s">
         <v>415</v>
@@ -19325,7 +19325,7 @@
         <v>1705</v>
       </c>
       <c r="C492" t="s">
-        <v>951</v>
+        <v>1064</v>
       </c>
       <c r="D492" t="s">
         <v>416</v>
@@ -19357,7 +19357,7 @@
         <v>1705</v>
       </c>
       <c r="C493" t="s">
-        <v>952</v>
+        <v>1063</v>
       </c>
       <c r="D493" t="s">
         <v>417</v>
@@ -19389,7 +19389,7 @@
         <v>1430</v>
       </c>
       <c r="C494" t="s">
-        <v>953</v>
+        <v>617</v>
       </c>
       <c r="D494" t="s">
         <v>418</v>
@@ -19421,7 +19421,7 @@
         <v>1769</v>
       </c>
       <c r="C495" t="s">
-        <v>954</v>
+        <v>1062</v>
       </c>
       <c r="D495" t="s">
         <v>419</v>
@@ -19453,7 +19453,7 @@
         <v>1769</v>
       </c>
       <c r="C496" t="s">
-        <v>955</v>
+        <v>1061</v>
       </c>
       <c r="D496" t="s">
         <v>420</v>
@@ -19485,7 +19485,7 @@
         <v>1339</v>
       </c>
       <c r="C497" t="s">
-        <v>956</v>
+        <v>618</v>
       </c>
       <c r="D497" t="s">
         <v>421</v>
@@ -19517,7 +19517,7 @@
         <v>1780</v>
       </c>
       <c r="C498" t="s">
-        <v>957</v>
+        <v>619</v>
       </c>
       <c r="D498" t="s">
         <v>422</v>
@@ -19549,7 +19549,7 @@
         <v>1781</v>
       </c>
       <c r="C499" t="s">
-        <v>958</v>
+        <v>1060</v>
       </c>
       <c r="D499" t="s">
         <v>335</v>
@@ -19581,7 +19581,7 @@
         <v>1781</v>
       </c>
       <c r="C500" t="s">
-        <v>959</v>
+        <v>1059</v>
       </c>
       <c r="D500" t="s">
         <v>337</v>
@@ -19613,7 +19613,7 @@
         <v>1781</v>
       </c>
       <c r="C501" t="s">
-        <v>960</v>
+        <v>1058</v>
       </c>
       <c r="D501" t="s">
         <v>338</v>
@@ -19645,7 +19645,7 @@
         <v>1781</v>
       </c>
       <c r="C502" t="s">
-        <v>961</v>
+        <v>1057</v>
       </c>
       <c r="D502" t="s">
         <v>339</v>
@@ -19677,7 +19677,7 @@
         <v>1781</v>
       </c>
       <c r="C503" t="s">
-        <v>962</v>
+        <v>1056</v>
       </c>
       <c r="D503" t="s">
         <v>423</v>
@@ -19709,7 +19709,7 @@
         <v>1781</v>
       </c>
       <c r="C504" t="s">
-        <v>963</v>
+        <v>1055</v>
       </c>
       <c r="D504" t="s">
         <v>340</v>
@@ -19741,7 +19741,7 @@
         <v>1781</v>
       </c>
       <c r="C505" t="s">
-        <v>964</v>
+        <v>1054</v>
       </c>
       <c r="D505" t="s">
         <v>341</v>
@@ -19773,7 +19773,7 @@
         <v>1781</v>
       </c>
       <c r="C506" t="s">
-        <v>965</v>
+        <v>1053</v>
       </c>
       <c r="D506" t="s">
         <v>342</v>
@@ -19805,7 +19805,7 @@
         <v>1781</v>
       </c>
       <c r="C507" t="s">
-        <v>966</v>
+        <v>1052</v>
       </c>
       <c r="D507" t="s">
         <v>343</v>
@@ -19837,7 +19837,7 @@
         <v>1781</v>
       </c>
       <c r="C508" t="s">
-        <v>967</v>
+        <v>1051</v>
       </c>
       <c r="D508" t="s">
         <v>344</v>
@@ -19869,7 +19869,7 @@
         <v>1781</v>
       </c>
       <c r="C509" t="s">
-        <v>968</v>
+        <v>1050</v>
       </c>
       <c r="D509" t="s">
         <v>345</v>
@@ -19901,7 +19901,7 @@
         <v>1781</v>
       </c>
       <c r="C510" t="s">
-        <v>969</v>
+        <v>1049</v>
       </c>
       <c r="D510" t="s">
         <v>346</v>
@@ -19933,7 +19933,7 @@
         <v>1781</v>
       </c>
       <c r="C511" t="s">
-        <v>970</v>
+        <v>1048</v>
       </c>
       <c r="D511" t="s">
         <v>424</v>
@@ -19965,7 +19965,7 @@
         <v>1781</v>
       </c>
       <c r="C512" t="s">
-        <v>971</v>
+        <v>1047</v>
       </c>
       <c r="D512" t="s">
         <v>348</v>
@@ -19997,7 +19997,7 @@
         <v>1781</v>
       </c>
       <c r="C513" t="s">
-        <v>972</v>
+        <v>1046</v>
       </c>
       <c r="D513" t="s">
         <v>349</v>
@@ -20029,7 +20029,7 @@
         <v>1781</v>
       </c>
       <c r="C514" t="s">
-        <v>973</v>
+        <v>1045</v>
       </c>
       <c r="D514" t="s">
         <v>351</v>
@@ -20061,7 +20061,7 @@
         <v>1780</v>
       </c>
       <c r="C515" t="s">
-        <v>974</v>
+        <v>620</v>
       </c>
       <c r="D515" t="s">
         <v>425</v>
@@ -20093,7 +20093,7 @@
         <v>1862</v>
       </c>
       <c r="C516" t="s">
-        <v>975</v>
+        <v>1044</v>
       </c>
       <c r="D516" t="s">
         <v>353</v>
@@ -20125,7 +20125,7 @@
         <v>1862</v>
       </c>
       <c r="C517" t="s">
-        <v>976</v>
+        <v>1043</v>
       </c>
       <c r="D517" t="s">
         <v>354</v>
@@ -20157,7 +20157,7 @@
         <v>1862</v>
       </c>
       <c r="C518" t="s">
-        <v>977</v>
+        <v>1042</v>
       </c>
       <c r="D518" t="s">
         <v>355</v>
@@ -20189,7 +20189,7 @@
         <v>1862</v>
       </c>
       <c r="C519" t="s">
-        <v>978</v>
+        <v>1041</v>
       </c>
       <c r="D519" t="s">
         <v>356</v>
@@ -20221,7 +20221,7 @@
         <v>1862</v>
       </c>
       <c r="C520" t="s">
-        <v>979</v>
+        <v>1040</v>
       </c>
       <c r="D520" t="s">
         <v>357</v>
@@ -20253,7 +20253,7 @@
         <v>1862</v>
       </c>
       <c r="C521" t="s">
-        <v>980</v>
+        <v>1039</v>
       </c>
       <c r="D521" t="s">
         <v>426</v>
@@ -20285,7 +20285,7 @@
         <v>1862</v>
       </c>
       <c r="C522" t="s">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="D522" t="s">
         <v>427</v>
@@ -20317,7 +20317,7 @@
         <v>1862</v>
       </c>
       <c r="C523" t="s">
-        <v>982</v>
+        <v>1037</v>
       </c>
       <c r="D523" t="s">
         <v>359</v>
@@ -20349,7 +20349,7 @@
         <v>1862</v>
       </c>
       <c r="C524" t="s">
-        <v>983</v>
+        <v>1036</v>
       </c>
       <c r="D524" t="s">
         <v>360</v>
@@ -20381,7 +20381,7 @@
         <v>1862</v>
       </c>
       <c r="C525" t="s">
-        <v>984</v>
+        <v>1035</v>
       </c>
       <c r="D525" t="s">
         <v>361</v>
@@ -20413,7 +20413,7 @@
         <v>1862</v>
       </c>
       <c r="C526" t="s">
-        <v>985</v>
+        <v>1034</v>
       </c>
       <c r="D526" t="s">
         <v>362</v>
@@ -20445,7 +20445,7 @@
         <v>1862</v>
       </c>
       <c r="C527" t="s">
-        <v>986</v>
+        <v>1033</v>
       </c>
       <c r="D527" t="s">
         <v>363</v>
@@ -20477,7 +20477,7 @@
         <v>1862</v>
       </c>
       <c r="C528" t="s">
-        <v>987</v>
+        <v>1032</v>
       </c>
       <c r="D528" t="s">
         <v>364</v>
@@ -20509,7 +20509,7 @@
         <v>1862</v>
       </c>
       <c r="C529" t="s">
-        <v>988</v>
+        <v>1031</v>
       </c>
       <c r="D529" t="s">
         <v>365</v>
@@ -20541,7 +20541,7 @@
         <v>1862</v>
       </c>
       <c r="C530" t="s">
-        <v>989</v>
+        <v>1030</v>
       </c>
       <c r="D530" t="s">
         <v>366</v>
@@ -20573,7 +20573,7 @@
         <v>1862</v>
       </c>
       <c r="C531" t="s">
-        <v>990</v>
+        <v>1029</v>
       </c>
       <c r="D531" t="s">
         <v>367</v>
@@ -20605,7 +20605,7 @@
         <v>1862</v>
       </c>
       <c r="C532" t="s">
-        <v>991</v>
+        <v>1028</v>
       </c>
       <c r="D532" t="s">
         <v>368</v>
@@ -20637,7 +20637,7 @@
         <v>1862</v>
       </c>
       <c r="C533" t="s">
-        <v>992</v>
+        <v>1027</v>
       </c>
       <c r="D533" t="s">
         <v>369</v>
@@ -20669,7 +20669,7 @@
         <v>1862</v>
       </c>
       <c r="C534" t="s">
-        <v>993</v>
+        <v>1026</v>
       </c>
       <c r="D534" t="s">
         <v>370</v>
@@ -20701,7 +20701,7 @@
         <v>1862</v>
       </c>
       <c r="C535" t="s">
-        <v>994</v>
+        <v>1025</v>
       </c>
       <c r="D535" t="s">
         <v>371</v>
@@ -20733,7 +20733,7 @@
         <v>1862</v>
       </c>
       <c r="C536" t="s">
-        <v>995</v>
+        <v>1024</v>
       </c>
       <c r="D536" t="s">
         <v>372</v>
@@ -20765,7 +20765,7 @@
         <v>1862</v>
       </c>
       <c r="C537" t="s">
-        <v>996</v>
+        <v>1023</v>
       </c>
       <c r="D537" t="s">
         <v>373</v>
@@ -20797,7 +20797,7 @@
         <v>1862</v>
       </c>
       <c r="C538" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
       <c r="D538" t="s">
         <v>374</v>
@@ -20829,7 +20829,7 @@
         <v>1862</v>
       </c>
       <c r="C539" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="D539" t="s">
         <v>375</v>
@@ -20861,7 +20861,7 @@
         <v>1862</v>
       </c>
       <c r="C540" t="s">
-        <v>999</v>
+        <v>1020</v>
       </c>
       <c r="D540" t="s">
         <v>376</v>
@@ -20893,7 +20893,7 @@
         <v>1862</v>
       </c>
       <c r="C541" t="s">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="D541" t="s">
         <v>377</v>
@@ -20925,7 +20925,7 @@
         <v>1862</v>
       </c>
       <c r="C542" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="D542" t="s">
         <v>378</v>
@@ -20957,7 +20957,7 @@
         <v>1862</v>
       </c>
       <c r="C543" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="D543" t="s">
         <v>379</v>
@@ -20989,7 +20989,7 @@
         <v>1862</v>
       </c>
       <c r="C544" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="D544" t="s">
         <v>428</v>
@@ -21021,7 +21021,7 @@
         <v>1862</v>
       </c>
       <c r="C545" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="D545" t="s">
         <v>380</v>
@@ -21053,7 +21053,7 @@
         <v>1862</v>
       </c>
       <c r="C546" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="D546" t="s">
         <v>429</v>
@@ -21085,7 +21085,7 @@
         <v>1862</v>
       </c>
       <c r="C547" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="D547" t="s">
         <v>430</v>
@@ -21117,7 +21117,7 @@
         <v>1862</v>
       </c>
       <c r="C548" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D548" t="s">
         <v>431</v>
@@ -21149,7 +21149,7 @@
         <v>1862</v>
       </c>
       <c r="C549" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D549" t="s">
         <v>381</v>
@@ -21181,7 +21181,7 @@
         <v>1780</v>
       </c>
       <c r="C550" t="s">
-        <v>1009</v>
+        <v>621</v>
       </c>
       <c r="D550" t="s">
         <v>432</v>
@@ -21245,7 +21245,7 @@
         <v>2033</v>
       </c>
       <c r="C552" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D552" t="s">
         <v>434</v>
@@ -21277,7 +21277,7 @@
         <v>2033</v>
       </c>
       <c r="C553" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D553" t="s">
         <v>435</v>
@@ -21309,7 +21309,7 @@
         <v>2033</v>
       </c>
       <c r="C554" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D554" t="s">
         <v>436</v>
@@ -21341,7 +21341,7 @@
         <v>2033</v>
       </c>
       <c r="C555" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="D555" t="s">
         <v>437</v>
@@ -21373,7 +21373,7 @@
         <v>1780</v>
       </c>
       <c r="C556" t="s">
-        <v>1015</v>
+        <v>622</v>
       </c>
       <c r="D556" t="s">
         <v>382</v>
@@ -21405,7 +21405,7 @@
         <v>2059</v>
       </c>
       <c r="C557" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="D557" t="s">
         <v>383</v>
@@ -21437,7 +21437,7 @@
         <v>2059</v>
       </c>
       <c r="C558" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="D558" t="s">
         <v>385</v>
@@ -21469,7 +21469,7 @@
         <v>2059</v>
       </c>
       <c r="C559" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="D559" t="s">
         <v>386</v>
@@ -21501,7 +21501,7 @@
         <v>2059</v>
       </c>
       <c r="C560" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="D560" t="s">
         <v>387</v>
@@ -21533,7 +21533,7 @@
         <v>1780</v>
       </c>
       <c r="C561" t="s">
-        <v>1020</v>
+        <v>623</v>
       </c>
       <c r="D561" t="s">
         <v>388</v>
@@ -21565,7 +21565,7 @@
         <v>2080</v>
       </c>
       <c r="C562" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
       <c r="D562" t="s">
         <v>389</v>
@@ -21597,7 +21597,7 @@
         <v>2080</v>
       </c>
       <c r="C563" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="D563" t="s">
         <v>390</v>
@@ -21629,7 +21629,7 @@
         <v>1780</v>
       </c>
       <c r="C564" t="s">
-        <v>1023</v>
+        <v>624</v>
       </c>
       <c r="D564" t="s">
         <v>438</v>
@@ -21661,7 +21661,7 @@
         <v>2091</v>
       </c>
       <c r="C565" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="D565" t="s">
         <v>439</v>
@@ -21693,7 +21693,7 @@
         <v>2091</v>
       </c>
       <c r="C566" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="D566" t="s">
         <v>440</v>
@@ -21725,7 +21725,7 @@
         <v>2091</v>
       </c>
       <c r="C567" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="D567" t="s">
         <v>441</v>
@@ -21757,7 +21757,7 @@
         <v>2091</v>
       </c>
       <c r="C568" t="s">
-        <v>1027</v>
+        <v>996</v>
       </c>
       <c r="D568" t="s">
         <v>442</v>
@@ -21789,7 +21789,7 @@
         <v>2091</v>
       </c>
       <c r="C569" t="s">
-        <v>1028</v>
+        <v>995</v>
       </c>
       <c r="D569" t="s">
         <v>443</v>
@@ -21821,7 +21821,7 @@
         <v>2091</v>
       </c>
       <c r="C570" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="D570" t="s">
         <v>444</v>
@@ -21853,7 +21853,7 @@
         <v>2091</v>
       </c>
       <c r="C571" t="s">
-        <v>1030</v>
+        <v>993</v>
       </c>
       <c r="D571" t="s">
         <v>420</v>
@@ -21885,7 +21885,7 @@
         <v>1339</v>
       </c>
       <c r="C572" t="s">
-        <v>1031</v>
+        <v>625</v>
       </c>
       <c r="D572" t="s">
         <v>445</v>
@@ -21917,7 +21917,7 @@
         <v>2127</v>
       </c>
       <c r="C573" t="s">
-        <v>1032</v>
+        <v>626</v>
       </c>
       <c r="D573" t="s">
         <v>446</v>
@@ -21949,7 +21949,7 @@
         <v>2128</v>
       </c>
       <c r="C574" t="s">
-        <v>1033</v>
+        <v>992</v>
       </c>
       <c r="D574" t="s">
         <v>447</v>
@@ -21981,7 +21981,7 @@
         <v>2128</v>
       </c>
       <c r="C575" t="s">
-        <v>1034</v>
+        <v>991</v>
       </c>
       <c r="D575" t="s">
         <v>448</v>
@@ -22013,7 +22013,7 @@
         <v>2128</v>
       </c>
       <c r="C576" t="s">
-        <v>1035</v>
+        <v>990</v>
       </c>
       <c r="D576" t="s">
         <v>449</v>
@@ -22045,7 +22045,7 @@
         <v>2128</v>
       </c>
       <c r="C577" t="s">
-        <v>1036</v>
+        <v>989</v>
       </c>
       <c r="D577" t="s">
         <v>450</v>
@@ -22077,7 +22077,7 @@
         <v>2128</v>
       </c>
       <c r="C578" t="s">
-        <v>1037</v>
+        <v>988</v>
       </c>
       <c r="D578" t="s">
         <v>451</v>
@@ -22109,7 +22109,7 @@
         <v>2128</v>
       </c>
       <c r="C579" t="s">
-        <v>1038</v>
+        <v>987</v>
       </c>
       <c r="D579" t="s">
         <v>452</v>
@@ -22141,7 +22141,7 @@
         <v>1339</v>
       </c>
       <c r="C580" t="s">
-        <v>1039</v>
+        <v>627</v>
       </c>
       <c r="D580" t="s">
         <v>420</v>
@@ -22173,7 +22173,7 @@
         <v>2159</v>
       </c>
       <c r="C581" t="s">
-        <v>1040</v>
+        <v>628</v>
       </c>
       <c r="D581" t="s">
         <v>420</v>
@@ -22205,7 +22205,7 @@
         <v>2160</v>
       </c>
       <c r="C582" t="s">
-        <v>1041</v>
+        <v>986</v>
       </c>
       <c r="D582" t="s">
         <v>453</v>
@@ -22237,7 +22237,7 @@
         <v>2160</v>
       </c>
       <c r="C583" t="s">
-        <v>1042</v>
+        <v>985</v>
       </c>
       <c r="D583" t="s">
         <v>454</v>
@@ -22269,7 +22269,7 @@
         <v>2160</v>
       </c>
       <c r="C584" t="s">
-        <v>1043</v>
+        <v>984</v>
       </c>
       <c r="D584" t="s">
         <v>455</v>
@@ -22301,7 +22301,7 @@
         <v>2160</v>
       </c>
       <c r="C585" t="s">
-        <v>1044</v>
+        <v>983</v>
       </c>
       <c r="D585" t="s">
         <v>456</v>
@@ -22333,7 +22333,7 @@
         <v>2160</v>
       </c>
       <c r="C586" t="s">
-        <v>1045</v>
+        <v>982</v>
       </c>
       <c r="D586" t="s">
         <v>457</v>
@@ -22365,7 +22365,7 @@
         <v>2160</v>
       </c>
       <c r="C587" t="s">
-        <v>1046</v>
+        <v>981</v>
       </c>
       <c r="D587" t="s">
         <v>303</v>
@@ -22397,7 +22397,7 @@
         <v>2160</v>
       </c>
       <c r="C588" t="s">
-        <v>1047</v>
+        <v>980</v>
       </c>
       <c r="D588" t="s">
         <v>458</v>
@@ -22429,7 +22429,7 @@
         <v>2160</v>
       </c>
       <c r="C589" t="s">
-        <v>1048</v>
+        <v>979</v>
       </c>
       <c r="D589" t="s">
         <v>459</v>
@@ -22461,7 +22461,7 @@
         <v>2160</v>
       </c>
       <c r="C590" t="s">
-        <v>1049</v>
+        <v>978</v>
       </c>
       <c r="D590" t="s">
         <v>420</v>
@@ -22493,7 +22493,7 @@
         <v>2201</v>
       </c>
       <c r="C591" t="s">
-        <v>1050</v>
+        <v>977</v>
       </c>
       <c r="D591" t="s">
         <v>460</v>
@@ -22525,7 +22525,7 @@
         <v>1339</v>
       </c>
       <c r="C592" t="s">
-        <v>1051</v>
+        <v>629</v>
       </c>
       <c r="D592" t="s">
         <v>305</v>
@@ -22557,7 +22557,7 @@
         <v>2206</v>
       </c>
       <c r="C593" t="s">
-        <v>1052</v>
+        <v>630</v>
       </c>
       <c r="D593" t="s">
         <v>305</v>
@@ -22589,7 +22589,7 @@
         <v>2207</v>
       </c>
       <c r="C594" t="s">
-        <v>1053</v>
+        <v>976</v>
       </c>
       <c r="D594" t="s">
         <v>306</v>
@@ -22621,7 +22621,7 @@
         <v>2208</v>
       </c>
       <c r="C595" t="s">
-        <v>1054</v>
+        <v>975</v>
       </c>
       <c r="D595" t="s">
         <v>461</v>
@@ -22653,7 +22653,7 @@
         <v>2207</v>
       </c>
       <c r="C596" t="s">
-        <v>1055</v>
+        <v>974</v>
       </c>
       <c r="D596" t="s">
         <v>307</v>
@@ -22685,7 +22685,7 @@
         <v>2210</v>
       </c>
       <c r="C597" t="s">
-        <v>1056</v>
+        <v>973</v>
       </c>
       <c r="D597" t="s">
         <v>462</v>
@@ -22717,7 +22717,7 @@
         <v>2207</v>
       </c>
       <c r="C598" t="s">
-        <v>1057</v>
+        <v>972</v>
       </c>
       <c r="D598" t="s">
         <v>308</v>
@@ -22749,7 +22749,7 @@
         <v>2212</v>
       </c>
       <c r="C599" t="s">
-        <v>1058</v>
+        <v>971</v>
       </c>
       <c r="D599" t="s">
         <v>463</v>
@@ -22781,7 +22781,7 @@
         <v>2207</v>
       </c>
       <c r="C600" t="s">
-        <v>1059</v>
+        <v>970</v>
       </c>
       <c r="D600" t="s">
         <v>309</v>
@@ -22813,7 +22813,7 @@
         <v>2214</v>
       </c>
       <c r="C601" t="s">
-        <v>1060</v>
+        <v>969</v>
       </c>
       <c r="D601" t="s">
         <v>464</v>
@@ -22845,7 +22845,7 @@
         <v>2207</v>
       </c>
       <c r="C602" t="s">
-        <v>1061</v>
+        <v>968</v>
       </c>
       <c r="D602" t="s">
         <v>310</v>
@@ -22877,7 +22877,7 @@
         <v>2216</v>
       </c>
       <c r="C603" t="s">
-        <v>1062</v>
+        <v>967</v>
       </c>
       <c r="D603" t="s">
         <v>465</v>
